--- a/P_Bulles-Flashcard/T-P_Bulles-Flashcards-MatiasDenis-JDT.xlsx
+++ b/P_Bulles-Flashcard/T-P_Bulles-Flashcards-MatiasDenis-JDT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pb58unc\Desktop\P_Bulles-Flashcards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pb58unc\Desktop\P_Bulles-Flashcards\P_Bulles-Flashcard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CF78DD-F452-4661-82A6-236BED1ECB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8EAB09-AA4C-40DB-8D17-B1720B1916A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="47">
   <si>
     <t>Module :</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Création d'un repo github afin de pouvoir voir les avancées du projet.</t>
+  </si>
+  <si>
+    <t>Avancées dans les steps 4 à 11</t>
+  </si>
+  <si>
+    <t>à compléter</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1785,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2113,7 +2119,9 @@
       <c r="B28" s="79">
         <v>8</v>
       </c>
-      <c r="C28" s="71"/>
+      <c r="C28" s="71" t="s">
+        <v>45</v>
+      </c>
       <c r="D28" s="59"/>
       <c r="E28" s="59"/>
       <c r="F28" s="59"/>
@@ -2405,27 +2413,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2455,27 +2463,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3185,7 +3193,7 @@
   <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3592,10 +3600,16 @@
       </c>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="10"/>
+    <row r="42" spans="1:8" ht="27" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="2">
+        <v>11</v>
+      </c>
+      <c r="C42" s="95" t="s">
+        <v>46</v>
+      </c>
       <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3682,7 +3696,7 @@
       </c>
       <c r="B56" s="47">
         <f>SUM(B41:B55)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C56" s="87" t="s">
         <v>31</v>
@@ -4671,6 +4685,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
@@ -4679,15 +4702,6 @@
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4710,6 +4724,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C29126A-0525-4FCA-A870-5924A033DD5A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4718,12 +4740,4 @@
     <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/P_Bulles-Flashcard/T-P_Bulles-Flashcards-MatiasDenis-JDT.xlsx
+++ b/P_Bulles-Flashcard/T-P_Bulles-Flashcards-MatiasDenis-JDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pb58unc\Desktop\P_Bulles-Flashcards\P_Bulles-Flashcard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8EAB09-AA4C-40DB-8D17-B1720B1916A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5BEA19-AAB7-4E65-B275-17A036861D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
   <si>
     <t>Module :</t>
   </si>
@@ -173,12 +173,6 @@
     <t>Lecture et prise de connaissance de tous les aspects demandés pour ce projet.</t>
   </si>
   <si>
-    <t>Création de l'infrastructure de base</t>
-  </si>
-  <si>
-    <t>Création de l'infrastructure de base sur l'application du projet grâce aux steps 0 et 1.</t>
-  </si>
-  <si>
     <t>Création d'un layout, composant layout et partials</t>
   </si>
   <si>
@@ -206,7 +200,25 @@
     <t>Avancées dans les steps 4 à 11</t>
   </si>
   <si>
-    <t>à compléter</t>
+    <t>Création de l'infrastructure de base sur l'application test grâce aux steps 0 et 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sans trop entrer dans le détail, ont été suivis les steps depuis la fin du 4 jusqu'à la fin du 11. Ce qui a été créé, entre autres: step5: création d'un jeu de données avec seeder et factory, step6: afficher les détails des enseignants avec route, méthodes dans le contrôleur, ajout d'une vue, step 7: suppression d'un enseignant, création d'une route, ajout d'une méthode au contrôleur, step8: ajout d'un enseignant, création de deux routes (une pour afficher le formulaire pour les informations de l'enseignant, une pour gérer l'ajout de l'enseignant), ajout d'un validateur, des méthodes au contrôleur, ajout d'une vue, step 9:  ajout d'un enseignant, création de deux routes (une pour afficher le formulaire pour les informations de l'enseignant, une pour gérer l'ajout de l'enseignant), ajout d'un validateur, des méthodes au contrôleur, step 10: mise en place de l'authentification, mise à jour de la table t_user, création de migration user, seeder, step 11: mise en place du login, nouvelle route, </t>
+  </si>
+  <si>
+    <t>nouveau contrôleur et méthode, création d'un validateur, step 12: mise en place du logout, nouvelle route, nouvelle méthode AuthControlleur, step 13: gestion des rôles, utilisation des middlewares (un pour partager l'état de l'authentification, un pour vérifier le rôle)</t>
+  </si>
+  <si>
+    <t>Finalisation des step 11 à 13</t>
+  </si>
+  <si>
+    <t>Création de l'infrastructure de l'application test</t>
+  </si>
+  <si>
+    <t>création d'un nouveau contrôleur et méthode, création d'un validateur pour finaliser le step 11, step 12: mise en place du logout, nouvelle route, nouvelle méthode AuthControlleur, step 13: gestion des rôles, utilisation des middlewares (un pour partager l'état de l'authentification, un pour vérifier le rôle)</t>
+  </si>
+  <si>
+    <t>Création de l'infrastructure du projet Flashcards</t>
   </si>
 </sst>
 </file>
@@ -1784,8 +1796,8 @@
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2055,7 +2067,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D23" s="59"/>
       <c r="E23" s="59"/>
@@ -2068,7 +2080,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" s="59"/>
       <c r="E24" s="59"/>
@@ -2081,7 +2093,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="59"/>
@@ -2094,7 +2106,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D26" s="59"/>
       <c r="E26" s="59"/>
@@ -2107,7 +2119,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" s="59"/>
       <c r="E27" s="59"/>
@@ -2120,7 +2132,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D28" s="59"/>
       <c r="E28" s="59"/>
@@ -2132,7 +2144,9 @@
       <c r="B29" s="81">
         <v>9</v>
       </c>
-      <c r="C29" s="71"/>
+      <c r="C29" s="71" t="s">
+        <v>47</v>
+      </c>
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
       <c r="F29" s="59"/>
@@ -2143,7 +2157,9 @@
       <c r="B30" s="79">
         <v>10</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="70" t="s">
+        <v>50</v>
+      </c>
       <c r="D30" s="59"/>
       <c r="E30" s="59"/>
       <c r="F30" s="59"/>
@@ -2413,27 +2429,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2463,27 +2479,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3192,8 +3208,8 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3404,25 +3420,25 @@
     </row>
     <row r="24" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" s="95" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2">
         <v>3</v>
       </c>
       <c r="C25" s="95" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="10"/>
       <c r="F25" s="31"/>
@@ -3431,13 +3447,13 @@
     </row>
     <row r="26" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
       <c r="C26" s="95" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" s="10"/>
       <c r="F26" s="34"/>
@@ -3446,13 +3462,13 @@
     </row>
     <row r="27" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2">
         <v>2</v>
       </c>
       <c r="C27" s="95" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" s="10"/>
       <c r="F27" s="36"/>
@@ -3590,25 +3606,25 @@
     </row>
     <row r="41" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="162" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2">
         <v>11</v>
       </c>
       <c r="C42" s="95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="10"/>
     </row>
@@ -3738,14 +3754,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="88"/>
+    <row r="60" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="4">
+        <v>6</v>
+      </c>
+      <c r="C60" s="88" t="s">
+        <v>49</v>
+      </c>
       <c r="D60" s="90"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+    <row r="61" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B61" s="2"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -3834,7 +3858,7 @@
       </c>
       <c r="B75" s="47">
         <f>SUM(B60:B74)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C75" s="87" t="s">
         <v>31</v>
@@ -3879,7 +3903,9 @@
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="88"/>
+      <c r="C79" s="88" t="s">
+        <v>46</v>
+      </c>
       <c r="D79" s="9"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4685,15 +4711,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
@@ -4702,6 +4719,15 @@
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4724,14 +4750,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C29126A-0525-4FCA-A870-5924A033DD5A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4740,4 +4758,12 @@
     <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/P_Bulles-Flashcard/T-P_Bulles-Flashcards-MatiasDenis-JDT.xlsx
+++ b/P_Bulles-Flashcard/T-P_Bulles-Flashcards-MatiasDenis-JDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pb58unc\Desktop\P_Bulles-Flashcards\P_Bulles-Flashcard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5BEA19-AAB7-4E65-B275-17A036861D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EC3FB0-863D-490E-BCDB-219DB0F670A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/P_Bulles-Flashcard/T-P_Bulles-Flashcards-MatiasDenis-JDT.xlsx
+++ b/P_Bulles-Flashcard/T-P_Bulles-Flashcards-MatiasDenis-JDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pb58unc\Desktop\P_Bulles-Flashcards\P_Bulles-Flashcard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EC3FB0-863D-490E-BCDB-219DB0F670A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5335BFF0-0577-46CA-A64C-7349E1841949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="56">
   <si>
     <t>Module :</t>
   </si>
@@ -219,6 +219,21 @@
   </si>
   <si>
     <t>Création de l'infrastructure du projet Flashcards</t>
+  </si>
+  <si>
+    <t>Création d'un MCD-MLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création du projet à l'aide de la commande npm init adonisjs@latest app-flashcards-adonisjs -- --db=mysql afin d'avoir l'infrastructure demandée. </t>
+  </si>
+  <si>
+    <t>Création des trois entités Utilisateur-Deck-Flashcards avec leurs attributs et les cardinalités entre elles afin d'avoir la logique sous les yeux.</t>
+  </si>
+  <si>
+    <t>Changement HTML-CSS</t>
+  </si>
+  <si>
+    <t>Remplacement du HTML/CSS existants dans le projet par le statique afin de recommencer comme dans les steps.</t>
   </si>
 </sst>
 </file>
@@ -2170,7 +2185,9 @@
       <c r="B31" s="79">
         <v>11</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="70" t="s">
+        <v>51</v>
+      </c>
       <c r="D31" s="59"/>
       <c r="E31" s="59"/>
       <c r="F31" s="59"/>
@@ -2181,7 +2198,9 @@
       <c r="B32" s="81">
         <v>12</v>
       </c>
-      <c r="C32" s="70"/>
+      <c r="C32" s="70" t="s">
+        <v>54</v>
+      </c>
       <c r="D32" s="59"/>
       <c r="E32" s="59"/>
       <c r="F32" s="59"/>
@@ -3209,7 +3228,7 @@
   <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3759,7 +3778,7 @@
         <v>47</v>
       </c>
       <c r="B60" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" s="88" t="s">
         <v>49</v>
@@ -3770,20 +3789,36 @@
       <c r="A61" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="10"/>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="95" t="s">
+        <v>52</v>
+      </c>
       <c r="D61" s="10"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="10"/>
+    <row r="62" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2</v>
+      </c>
+      <c r="C62" s="95" t="s">
+        <v>53</v>
+      </c>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="10"/>
+    <row r="63" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2</v>
+      </c>
+      <c r="C63" s="95" t="s">
+        <v>55</v>
+      </c>
       <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3858,7 +3893,7 @@
       </c>
       <c r="B75" s="47">
         <f>SUM(B60:B74)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C75" s="87" t="s">
         <v>31</v>

--- a/P_Bulles-Flashcard/T-P_Bulles-Flashcards-MatiasDenis-JDT.xlsx
+++ b/P_Bulles-Flashcard/T-P_Bulles-Flashcards-MatiasDenis-JDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pb58unc\Desktop\P_Bulles-Flashcards\P_Bulles-Flashcard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5335BFF0-0577-46CA-A64C-7349E1841949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFFD641-51DD-4307-9176-CD650306214A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
   <si>
     <t>Module :</t>
   </si>
@@ -206,9 +206,6 @@
     <t xml:space="preserve">Sans trop entrer dans le détail, ont été suivis les steps depuis la fin du 4 jusqu'à la fin du 11. Ce qui a été créé, entre autres: step5: création d'un jeu de données avec seeder et factory, step6: afficher les détails des enseignants avec route, méthodes dans le contrôleur, ajout d'une vue, step 7: suppression d'un enseignant, création d'une route, ajout d'une méthode au contrôleur, step8: ajout d'un enseignant, création de deux routes (une pour afficher le formulaire pour les informations de l'enseignant, une pour gérer l'ajout de l'enseignant), ajout d'un validateur, des méthodes au contrôleur, ajout d'une vue, step 9:  ajout d'un enseignant, création de deux routes (une pour afficher le formulaire pour les informations de l'enseignant, une pour gérer l'ajout de l'enseignant), ajout d'un validateur, des méthodes au contrôleur, step 10: mise en place de l'authentification, mise à jour de la table t_user, création de migration user, seeder, step 11: mise en place du login, nouvelle route, </t>
   </si>
   <si>
-    <t>nouveau contrôleur et méthode, création d'un validateur, step 12: mise en place du logout, nouvelle route, nouvelle méthode AuthControlleur, step 13: gestion des rôles, utilisation des middlewares (un pour partager l'état de l'authentification, un pour vérifier le rôle)</t>
-  </si>
-  <si>
     <t>Finalisation des step 11 à 13</t>
   </si>
   <si>
@@ -234,6 +231,140 @@
   </si>
   <si>
     <t>Remplacement du HTML/CSS existants dans le projet par le statique afin de recommencer comme dans les steps.</t>
+  </si>
+  <si>
+    <t>Rendez-vous chez le médecin.</t>
+  </si>
+  <si>
+    <t>Création de l'architecture des dossiers des pages</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Création d'un dossier </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">components </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">qui contient la page </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">layout.edge, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">création d'un dossier </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">partials </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">qui contient </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>header.edge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>footer.edge. Adaptation de la page home.edge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Le code de ces différentes pages se trouve dans les PDF, step 1 et 2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Il a été adapté pour l'application Flashcards depuis l'application test.</t>
+    </r>
+  </si>
+  <si>
+    <t>Création des migrations pour t_deck et t_flashcards et code</t>
+  </si>
+  <si>
+    <t>Création des modèles et migrations pour t_deck et t_flashcards et code</t>
+  </si>
+  <si>
+    <t>A compléter.</t>
   </si>
 </sst>
 </file>
@@ -243,7 +374,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Century Gothic"/>
@@ -349,6 +480,13 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1811,8 +1949,8 @@
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2082,7 +2220,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="59"/>
       <c r="E23" s="59"/>
@@ -2160,7 +2298,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
@@ -2173,7 +2311,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="59"/>
       <c r="E30" s="59"/>
@@ -2186,7 +2324,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="59"/>
@@ -2199,7 +2337,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="59"/>
       <c r="E32" s="59"/>
@@ -2211,7 +2349,9 @@
       <c r="B33" s="79">
         <v>13</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="70" t="s">
+        <v>56</v>
+      </c>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
@@ -2222,7 +2362,9 @@
       <c r="B34" s="79">
         <v>14</v>
       </c>
-      <c r="C34" s="71"/>
+      <c r="C34" s="71" t="s">
+        <v>59</v>
+      </c>
       <c r="D34" s="59"/>
       <c r="E34" s="59"/>
       <c r="F34" s="59"/>
@@ -2448,27 +2590,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2498,27 +2640,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3227,8 +3369,8 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3439,7 +3581,7 @@
     </row>
     <row r="24" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
@@ -3775,56 +3917,56 @@
     </row>
     <row r="60" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60" s="4">
         <v>7</v>
       </c>
       <c r="C60" s="88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D60" s="90"/>
     </row>
     <row r="61" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61" s="2">
         <v>1</v>
       </c>
       <c r="C61" s="95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="2">
         <v>2</v>
       </c>
       <c r="C62" s="95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B63" s="2">
         <v>2</v>
       </c>
       <c r="C63" s="95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="10"/>
+      <c r="C64" s="95"/>
       <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3936,23 +4078,39 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="4"/>
+      <c r="A79" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="4">
+        <v>6</v>
+      </c>
       <c r="C79" s="88" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="10"/>
+    <row r="80" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" s="2">
+        <v>3</v>
+      </c>
+      <c r="C80" s="95" t="s">
+        <v>57</v>
+      </c>
       <c r="D80" s="10"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="10"/>
+    <row r="81" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" s="2">
+        <v>3</v>
+      </c>
+      <c r="C81" s="95" t="s">
+        <v>60</v>
+      </c>
       <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4033,7 +4191,7 @@
       </c>
       <c r="B94" s="47">
         <f>SUM(B79:B93)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C94" s="87" t="s">
         <v>31</v>
@@ -4471,14 +4629,14 @@
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B3:B17 B22:B36 B41:B55 B60:B74 B79:B93 B98:B112 B117:B131 B136:B150" xr:uid="{B23B642E-0B29-4ED8-A409-C50EB7CC17BF}">
+    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B3:B17 B22:B36 B41:B55 B60:B74 B136:B150 B98:B112 B117:B131 B79:B93" xr:uid="{B23B642E-0B29-4ED8-A409-C50EB7CC17BF}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B18 B37 B56 B75 B94 B113 B132 B151" xr:uid="{C02FA86D-12F2-40ED-8F5D-F7684A1E2EDD}">
       <formula1>0</formula1>
       <formula2>NbPerWeek * NbQuartPer</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A17 A22:A36 A41:A55 A60:A74 A79:A93 A98:A112 A117:A131 A136:A150" xr:uid="{BCBC0613-73E6-47AF-B0DB-7981EF783ABA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A17 A22:A36 A41:A55 A60:A74 A136:A150 A98:A112 A117:A131 A79:A93" xr:uid="{BCBC0613-73E6-47AF-B0DB-7981EF783ABA}">
       <formula1>lstTasks</formula1>
     </dataValidation>
   </dataValidations>
@@ -4746,6 +4904,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
@@ -4754,15 +4921,6 @@
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4785,6 +4943,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C29126A-0525-4FCA-A870-5924A033DD5A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4793,12 +4959,4 @@
     <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/P_Bulles-Flashcard/T-P_Bulles-Flashcards-MatiasDenis-JDT.xlsx
+++ b/P_Bulles-Flashcard/T-P_Bulles-Flashcards-MatiasDenis-JDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pb58unc\Desktop\P_Bulles-Flashcards\P_Bulles-Flashcard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFFD641-51DD-4307-9176-CD650306214A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1F0D43-6547-4550-8B85-4B5444E78B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
   <si>
     <t>Module :</t>
   </si>
@@ -364,7 +364,37 @@
     <t>Création des modèles et migrations pour t_deck et t_flashcards et code</t>
   </si>
   <si>
-    <t>A compléter.</t>
+    <t>Création des migrations pour les decks, les users et les flashcards. Création des modèles flashcards. Le code a été repris de l'application test et adapté aux différents attributs du MCD/MLD. Mise en place de la route pour que la page d'accueil soit égale à la liste des decks via le futur DecksController.</t>
+  </si>
+  <si>
+    <t>Création du contrôleur pour les decks</t>
+  </si>
+  <si>
+    <t>Méthodes du contrôleur decks</t>
+  </si>
+  <si>
+    <t>Création des routes pour créer, montrer, modifier et supprimer un deck</t>
+  </si>
+  <si>
+    <t>Création du contrôleur pour les decks et création de la méthode index pour lister tous les decks, update de la route pour que la page d'accueil soit égale à la liste des decks.</t>
+  </si>
+  <si>
+    <t>Création des méthodes show, edit, update et destroy afin de pouvoir intéragir les decks.</t>
+  </si>
+  <si>
+    <t>Création des routes show, edit, update et destroy afin de pouvoir aller sur les différentes pages.</t>
+  </si>
+  <si>
+    <t>Création des vues edit et show</t>
+  </si>
+  <si>
+    <t>Création des vues edit et show afin d'arriver sur ces pages là via les routes pour pouvoir voir les détails d'un deck, le modifier. (La suppression se fait sur la page home directement)</t>
+  </si>
+  <si>
+    <t>Création du validateur pour les decks</t>
+  </si>
+  <si>
+    <t>Création d'un validateur pour la création et la modification d'un deck avec mise à jour des méthodes update et store qui l'utilisent. Mise à jour de create.edge afin d'afficher les erreurs.</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1041,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1271,10 +1301,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1949,8 +1975,8 @@
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2166,10 +2192,10 @@
     </row>
     <row r="19" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78"/>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="97"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
       <c r="F19" s="59"/>
@@ -2375,7 +2401,9 @@
       <c r="B35" s="81">
         <v>15</v>
       </c>
-      <c r="C35" s="71"/>
+      <c r="C35" s="71" t="s">
+        <v>61</v>
+      </c>
       <c r="D35" s="59"/>
       <c r="E35" s="59"/>
       <c r="F35" s="59"/>
@@ -2386,7 +2414,9 @@
       <c r="B36" s="79">
         <v>16</v>
       </c>
-      <c r="C36" s="70"/>
+      <c r="C36" s="70" t="s">
+        <v>62</v>
+      </c>
       <c r="D36" s="59"/>
       <c r="E36" s="59"/>
       <c r="F36" s="59"/>
@@ -2397,7 +2427,9 @@
       <c r="B37" s="79">
         <v>17</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="70" t="s">
+        <v>63</v>
+      </c>
       <c r="D37" s="59"/>
       <c r="E37" s="59"/>
       <c r="F37" s="59"/>
@@ -2408,7 +2440,9 @@
       <c r="B38" s="81">
         <v>18</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="70" t="s">
+        <v>67</v>
+      </c>
       <c r="D38" s="59"/>
       <c r="E38" s="59"/>
       <c r="F38" s="59"/>
@@ -2419,7 +2453,9 @@
       <c r="B39" s="79">
         <v>19</v>
       </c>
-      <c r="C39" s="70"/>
+      <c r="C39" s="70" t="s">
+        <v>69</v>
+      </c>
       <c r="D39" s="59"/>
       <c r="E39" s="59"/>
       <c r="F39" s="59"/>
@@ -2590,27 +2626,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2640,27 +2676,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -2699,7 +2735,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="97" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="16">
@@ -2708,7 +2744,7 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="99"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="22">
         <v>0</v>
       </c>
@@ -3369,8 +3405,8 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3433,7 +3469,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="89"/>
-      <c r="D5" s="93"/>
+      <c r="D5" s="92"/>
     </row>
     <row r="6" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -3586,7 +3622,7 @@
       <c r="B24" s="2">
         <v>3</v>
       </c>
-      <c r="C24" s="95" t="s">
+      <c r="C24" s="94" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="10"/>
@@ -3598,7 +3634,7 @@
       <c r="B25" s="2">
         <v>3</v>
       </c>
-      <c r="C25" s="95" t="s">
+      <c r="C25" s="94" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="10"/>
@@ -3613,7 +3649,7 @@
       <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="94" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="10"/>
@@ -3628,7 +3664,7 @@
       <c r="B27" s="2">
         <v>2</v>
       </c>
-      <c r="C27" s="95" t="s">
+      <c r="C27" s="94" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="10"/>
@@ -3784,7 +3820,7 @@
       <c r="B42" s="2">
         <v>11</v>
       </c>
-      <c r="C42" s="95" t="s">
+      <c r="C42" s="94" t="s">
         <v>45</v>
       </c>
       <c r="D42" s="10"/>
@@ -3934,7 +3970,7 @@
       <c r="B61" s="2">
         <v>1</v>
       </c>
-      <c r="C61" s="95" t="s">
+      <c r="C61" s="94" t="s">
         <v>51</v>
       </c>
       <c r="D61" s="10"/>
@@ -3946,7 +3982,7 @@
       <c r="B62" s="2">
         <v>2</v>
       </c>
-      <c r="C62" s="95" t="s">
+      <c r="C62" s="94" t="s">
         <v>52</v>
       </c>
       <c r="D62" s="10"/>
@@ -3958,7 +3994,7 @@
       <c r="B63" s="2">
         <v>2</v>
       </c>
-      <c r="C63" s="95" t="s">
+      <c r="C63" s="94" t="s">
         <v>54</v>
       </c>
       <c r="D63" s="10"/>
@@ -3966,7 +4002,7 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="95"/>
+      <c r="C64" s="94"/>
       <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4096,7 +4132,7 @@
       <c r="B80" s="2">
         <v>3</v>
       </c>
-      <c r="C80" s="95" t="s">
+      <c r="C80" s="94" t="s">
         <v>57</v>
       </c>
       <c r="D80" s="10"/>
@@ -4108,7 +4144,7 @@
       <c r="B81" s="2">
         <v>3</v>
       </c>
-      <c r="C81" s="95" t="s">
+      <c r="C81" s="94" t="s">
         <v>60</v>
       </c>
       <c r="D81" s="10"/>
@@ -4234,8 +4270,12 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="4"/>
+      <c r="A98" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="4">
+        <v>12</v>
+      </c>
       <c r="C98" s="88"/>
       <c r="D98" s="91"/>
     </row>
@@ -4243,7 +4283,7 @@
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="89"/>
-      <c r="D99" s="93"/>
+      <c r="D99" s="92"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
@@ -4329,7 +4369,7 @@
       </c>
       <c r="B113" s="47">
         <f>SUM(B98:B112)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C113" s="87" t="s">
         <v>31</v>
@@ -4371,34 +4411,64 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="88"/>
+    <row r="117" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" s="4">
+        <v>1</v>
+      </c>
+      <c r="C117" s="88" t="s">
+        <v>64</v>
+      </c>
       <c r="D117" s="9"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="92"/>
+    <row r="118" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" s="2">
+        <v>3</v>
+      </c>
+      <c r="C118" s="94" t="s">
+        <v>65</v>
+      </c>
       <c r="D118" s="10"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="89"/>
-      <c r="D119" s="93"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="10"/>
+    <row r="119" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1</v>
+      </c>
+      <c r="C119" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D119" s="92"/>
+    </row>
+    <row r="120" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B120" s="2">
+        <v>4</v>
+      </c>
+      <c r="C120" s="94" t="s">
+        <v>68</v>
+      </c>
       <c r="D120" s="10"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="10"/>
+    <row r="121" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B121" s="2">
+        <v>3</v>
+      </c>
+      <c r="C121" s="94" t="s">
+        <v>70</v>
+      </c>
       <c r="D121" s="10"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4467,7 +4537,7 @@
       </c>
       <c r="B132" s="47">
         <f>SUM(B117:B131)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C132" s="87" t="s">
         <v>31</v>
@@ -4512,13 +4582,13 @@
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="94"/>
+      <c r="C136" s="93"/>
       <c r="D136" s="9"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
-      <c r="C137" s="95"/>
+      <c r="C137" s="94"/>
       <c r="D137" s="10"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4904,15 +4974,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
@@ -4921,6 +4982,15 @@
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4943,14 +5013,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C29126A-0525-4FCA-A870-5924A033DD5A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4959,4 +5021,12 @@
     <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/P_Bulles-Flashcard/T-P_Bulles-Flashcards-MatiasDenis-JDT.xlsx
+++ b/P_Bulles-Flashcard/T-P_Bulles-Flashcards-MatiasDenis-JDT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pb58unc\Desktop\P_Bulles-Flashcards\P_Bulles-Flashcard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matia\Desktop\P_Bulles-Flashcards\P_Bulles-Flashcard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1F0D43-6547-4550-8B85-4B5444E78B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C35398A-F1D8-49E6-A764-FB0AE2675FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="datDateBegin">Donnees!$C$9</definedName>
-    <definedName name="lstTasks">Donnees!$C$20:$C$45</definedName>
+    <definedName name="lstTasks">Donnees!$C$20:$C$51</definedName>
     <definedName name="NbPerWeek">Donnees!$C$12</definedName>
     <definedName name="NbQuartPer">Donnees!$C$13</definedName>
     <definedName name="NbWeeks">Donnees!$C$11</definedName>
@@ -30,7 +30,7 @@
     <definedName name="objPlanifWeek">PlanificationWeek!$A$1:$D$14</definedName>
     <definedName name="objRealizedWeek" localSheetId="4">achievementWeek!$A$1:$D$19</definedName>
     <definedName name="objRealizedWeek" localSheetId="5">JNLTRAV!$A$1:$D$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Donnees!$A$1:$G$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Donnees!$A$1:$G$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="98">
   <si>
     <t>Module :</t>
   </si>
@@ -395,6 +395,87 @@
   </si>
   <si>
     <t>Création d'un validateur pour la création et la modification d'un deck avec mise à jour des méthodes update et store qui l'utilisent. Mise à jour de create.edge afin d'afficher les erreurs.</t>
+  </si>
+  <si>
+    <t>Vacances du 20.12.25 au 04.01.26</t>
+  </si>
+  <si>
+    <t>Lundi 29.12.25</t>
+  </si>
+  <si>
+    <t>Modification du validateur pour les decks</t>
+  </si>
+  <si>
+    <t>Monsieur Charmier m'a fait remarquer que les validateurs pour la création et la modification d'un deck sont identiques et donc ils ont été adapté pour ne faire qu'un et ensuite les méthodes store et update ont été adaptées pour utiliser cet unique validateur.</t>
+  </si>
+  <si>
+    <t>Initialisation du projet à la maison afin de pouvoir travailler dessus: installation de docker desktop, github desktop, le fchier .env.</t>
+  </si>
+  <si>
+    <t>Initialisation du projet à la maison</t>
+  </si>
+  <si>
+    <t>Création des routes pour créer, montrer, modifier et supprimer des cartes</t>
+  </si>
+  <si>
+    <t>Création des contrôleurs et méthodes pour les cartes</t>
+  </si>
+  <si>
+    <t>Création du contrôleur pour les cartes et création des méthodes index, create, store, edit, update, destroy afin de pouvoir faire les différentes actions CRUD sur les cartes.</t>
+  </si>
+  <si>
+    <t>Création des vues index.edge, create.edge, edit.edge pour les flashcards</t>
+  </si>
+  <si>
+    <t>Création des routes index, edit, update et destroy afin d'intéragir avec les cartes, corrections d'erreurs et ajout des routes publish, unpublish et play pour les decks.</t>
+  </si>
+  <si>
+    <t>Création des vues flashcards afin d'avoir accès aux pages de cartes pour chaque deck, de les ajouter, les modifier et les supprimer. Modification de la page home.edge avec les actions complètes de chaque deck</t>
+  </si>
+  <si>
+    <t>Création d'un seeder pour test de connexion</t>
+  </si>
+  <si>
+    <t>Création du contrôleur pour l'authentification</t>
+  </si>
+  <si>
+    <t>Création d'un seeder pour avoir deux utilisateurs un admin et un pas en vue de faire l'authentification comme dans les steps 10, 11, 12 et 13 de l'application test.</t>
+  </si>
+  <si>
+    <t>Création du contrôleur pour l'authentification &amp; modification routes</t>
+  </si>
+  <si>
+    <t>Création du contrôleur pour l'authentification avec message. Modification des routes afin de respecter les accès aux pages de l'authentification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authentification </t>
+  </si>
+  <si>
+    <t>Middlewares et affichage dynamique du header</t>
+  </si>
+  <si>
+    <t>Contrôleurs et passage de auth aux vues</t>
+  </si>
+  <si>
+    <t>Navigation et routes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vues Edge </t>
+  </si>
+  <si>
+    <t>Ajout des pages login et signup, implémentation de la connexion (vérification des identifiants + session web), gestion des messages d’erreur, et mise en place de la déconnexion avec redirection vers l’accueil.</t>
+  </si>
+  <si>
+    <t>Activation d’un silent auth global pour connaître l’état connecté/déconnecté sur toutes les pages, et adaptation du header pour afficher soit le formulaire de connexion + lien d’inscription, soit l’utilisateur connecté + bouton de déconnexion.</t>
+  </si>
+  <si>
+    <t>Mise à jour des contrôleurs Decks et Flashcards pour transmettre auth aux vues et permettre un affichage cohérent de l’interface selon l’état de connexion.</t>
+  </si>
+  <si>
+    <t>Réorganisation des routes avec séparation publiques / guest / auth, ajout des routes d’authentification (login/signup/logout), et regroupement des routes privées (CRUD decks + flashcards + publish/unpublish) sous middleware auth.</t>
+  </si>
+  <si>
+    <t>Création des vues login.edge et signup.edge, ajout d’une vue minimale play.edge, et ajustements des vues decks/flashcards pour utiliser les routes mises à jour et éviter les erreurs de lookup (decks.index → home).</t>
   </si>
 </sst>
 </file>
@@ -602,7 +683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1031,6 +1112,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1041,7 +1137,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1271,13 +1367,6 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1310,20 +1399,46 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1382,15 +1497,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1440,15 +1555,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>95250</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>53340</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1498,7 +1613,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
@@ -1561,13 +1676,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>259080</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -1624,13 +1739,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>259080</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -1687,13 +1802,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>245745</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -1973,21 +2088,21 @@
   <sheetPr codeName="Feuil1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="B19:C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="57" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" style="57" customWidth="1"/>
-    <col min="3" max="3" width="88.5703125" style="57" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" style="57" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" style="57"/>
-    <col min="7" max="7" width="3.28515625" style="57" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="57"/>
+    <col min="1" max="1" width="16.5546875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" style="57" customWidth="1"/>
+    <col min="3" max="3" width="88.5546875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" style="57" customWidth="1"/>
+    <col min="5" max="6" width="11.5546875" style="57"/>
+    <col min="7" max="7" width="3.33203125" style="57" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1999,7 +2114,7 @@
       <c r="F1" s="55"/>
       <c r="G1" s="56"/>
     </row>
-    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58"/>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
@@ -2008,7 +2123,7 @@
       <c r="F2" s="59"/>
       <c r="G2" s="60"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
       <c r="B3" s="61" t="s">
         <v>0</v>
@@ -2021,7 +2136,7 @@
       <c r="F3" s="59"/>
       <c r="G3" s="60"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
       <c r="B4" s="63" t="s">
         <v>4</v>
@@ -2034,7 +2149,7 @@
       <c r="F4" s="59"/>
       <c r="G4" s="60"/>
     </row>
-    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
@@ -2047,7 +2162,7 @@
       <c r="F5" s="59"/>
       <c r="G5" s="60"/>
     </row>
-    <row r="6" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58"/>
       <c r="B6" s="65" t="s">
         <v>2</v>
@@ -2069,7 +2184,7 @@
       <c r="F7" s="59"/>
       <c r="G7" s="60"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -2078,7 +2193,7 @@
       <c r="F8" s="59"/>
       <c r="G8" s="60"/>
     </row>
-    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
       <c r="B9" s="61" t="s">
         <v>9</v>
@@ -2091,7 +2206,7 @@
       <c r="F9" s="59"/>
       <c r="G9" s="60"/>
     </row>
-    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
       <c r="B10" s="68" t="s">
         <v>8</v>
@@ -2104,7 +2219,7 @@
       <c r="F10" s="59"/>
       <c r="G10" s="60"/>
     </row>
-    <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
       <c r="B11" s="68" t="s">
         <v>10</v>
@@ -2117,7 +2232,7 @@
       <c r="F11" s="59"/>
       <c r="G11" s="60"/>
     </row>
-    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
       <c r="B12" s="63" t="s">
         <v>11</v>
@@ -2130,7 +2245,7 @@
       <c r="F12" s="59"/>
       <c r="G12" s="60"/>
     </row>
-    <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
       <c r="B13" s="63" t="s">
         <v>12</v>
@@ -2143,7 +2258,7 @@
       <c r="F13" s="59"/>
       <c r="G13" s="60"/>
     </row>
-    <row r="14" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="72"/>
       <c r="C14" s="73" t="s">
@@ -2163,7 +2278,7 @@
       <c r="F15" s="59"/>
       <c r="G15" s="60"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="74"/>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
@@ -2181,7 +2296,7 @@
       <c r="F17" s="55"/>
       <c r="G17" s="56"/>
     </row>
-    <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78"/>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
@@ -2192,16 +2307,16 @@
     </row>
     <row r="19" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78"/>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="96"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
       <c r="F19" s="59"/>
       <c r="G19" s="60"/>
     </row>
-    <row r="20" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="79" t="s">
         <v>20</v>
@@ -2214,7 +2329,7 @@
       <c r="F20" s="59"/>
       <c r="G20" s="60"/>
     </row>
-    <row r="21" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
       <c r="B21" s="79">
         <v>1</v>
@@ -2227,7 +2342,7 @@
       <c r="F21" s="59"/>
       <c r="G21" s="60"/>
     </row>
-    <row r="22" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="78"/>
       <c r="B22" s="79">
         <v>2</v>
@@ -2240,7 +2355,7 @@
       <c r="F22" s="59"/>
       <c r="G22" s="60"/>
     </row>
-    <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
       <c r="B23" s="81">
         <v>3</v>
@@ -2253,7 +2368,7 @@
       <c r="F23" s="59"/>
       <c r="G23" s="60"/>
     </row>
-    <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
       <c r="B24" s="79">
         <v>4</v>
@@ -2266,7 +2381,7 @@
       <c r="F24" s="59"/>
       <c r="G24" s="60"/>
     </row>
-    <row r="25" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="78"/>
       <c r="B25" s="79">
         <v>5</v>
@@ -2279,7 +2394,7 @@
       <c r="F25" s="59"/>
       <c r="G25" s="60"/>
     </row>
-    <row r="26" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="78"/>
       <c r="B26" s="81">
         <v>6</v>
@@ -2292,7 +2407,7 @@
       <c r="F26" s="59"/>
       <c r="G26" s="60"/>
     </row>
-    <row r="27" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="78"/>
       <c r="B27" s="79">
         <v>7</v>
@@ -2305,7 +2420,7 @@
       <c r="F27" s="59"/>
       <c r="G27" s="60"/>
     </row>
-    <row r="28" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="78"/>
       <c r="B28" s="79">
         <v>8</v>
@@ -2318,7 +2433,7 @@
       <c r="F28" s="59"/>
       <c r="G28" s="60"/>
     </row>
-    <row r="29" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="78"/>
       <c r="B29" s="81">
         <v>9</v>
@@ -2331,7 +2446,7 @@
       <c r="F29" s="59"/>
       <c r="G29" s="60"/>
     </row>
-    <row r="30" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="78"/>
       <c r="B30" s="79">
         <v>10</v>
@@ -2344,7 +2459,7 @@
       <c r="F30" s="59"/>
       <c r="G30" s="60"/>
     </row>
-    <row r="31" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="78"/>
       <c r="B31" s="79">
         <v>11</v>
@@ -2357,7 +2472,7 @@
       <c r="F31" s="59"/>
       <c r="G31" s="60"/>
     </row>
-    <row r="32" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="78"/>
       <c r="B32" s="81">
         <v>12</v>
@@ -2370,7 +2485,7 @@
       <c r="F32" s="59"/>
       <c r="G32" s="60"/>
     </row>
-    <row r="33" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="78"/>
       <c r="B33" s="79">
         <v>13</v>
@@ -2383,7 +2498,7 @@
       <c r="F33" s="59"/>
       <c r="G33" s="60"/>
     </row>
-    <row r="34" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="78"/>
       <c r="B34" s="79">
         <v>14</v>
@@ -2396,7 +2511,7 @@
       <c r="F34" s="59"/>
       <c r="G34" s="60"/>
     </row>
-    <row r="35" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="78"/>
       <c r="B35" s="81">
         <v>15</v>
@@ -2409,7 +2524,7 @@
       <c r="F35" s="59"/>
       <c r="G35" s="60"/>
     </row>
-    <row r="36" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="78"/>
       <c r="B36" s="79">
         <v>16</v>
@@ -2422,7 +2537,7 @@
       <c r="F36" s="59"/>
       <c r="G36" s="60"/>
     </row>
-    <row r="37" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="78"/>
       <c r="B37" s="79">
         <v>17</v>
@@ -2435,7 +2550,7 @@
       <c r="F37" s="59"/>
       <c r="G37" s="60"/>
     </row>
-    <row r="38" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="78"/>
       <c r="B38" s="81">
         <v>18</v>
@@ -2448,7 +2563,7 @@
       <c r="F38" s="59"/>
       <c r="G38" s="60"/>
     </row>
-    <row r="39" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="78"/>
       <c r="B39" s="79">
         <v>19</v>
@@ -2461,121 +2576,157 @@
       <c r="F39" s="59"/>
       <c r="G39" s="60"/>
     </row>
-    <row r="40" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="78"/>
       <c r="B40" s="79">
         <v>20</v>
       </c>
-      <c r="C40" s="71"/>
+      <c r="C40" s="71" t="s">
+        <v>76</v>
+      </c>
       <c r="D40" s="59"/>
       <c r="E40" s="59"/>
       <c r="F40" s="59"/>
       <c r="G40" s="60"/>
     </row>
-    <row r="41" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="78"/>
       <c r="B41" s="81">
         <v>21</v>
       </c>
-      <c r="C41" s="71"/>
+      <c r="C41" s="71" t="s">
+        <v>73</v>
+      </c>
       <c r="D41" s="59"/>
       <c r="E41" s="59"/>
       <c r="F41" s="59"/>
       <c r="G41" s="60"/>
     </row>
-    <row r="42" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="78"/>
       <c r="B42" s="79">
         <v>22</v>
       </c>
-      <c r="C42" s="70"/>
+      <c r="C42" s="71" t="s">
+        <v>77</v>
+      </c>
       <c r="D42" s="59"/>
       <c r="E42" s="59"/>
       <c r="F42" s="59"/>
       <c r="G42" s="60"/>
     </row>
-    <row r="43" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="78"/>
       <c r="B43" s="79">
         <v>23</v>
       </c>
-      <c r="C43" s="70"/>
+      <c r="C43" s="70" t="s">
+        <v>78</v>
+      </c>
       <c r="D43" s="59"/>
       <c r="E43" s="59"/>
       <c r="F43" s="59"/>
       <c r="G43" s="60"/>
     </row>
-    <row r="44" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="78"/>
       <c r="B44" s="81">
         <v>24</v>
       </c>
-      <c r="C44" s="70"/>
+      <c r="C44" s="70" t="s">
+        <v>80</v>
+      </c>
       <c r="D44" s="59"/>
       <c r="E44" s="59"/>
       <c r="F44" s="59"/>
       <c r="G44" s="60"/>
     </row>
-    <row r="45" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="78"/>
-      <c r="B45" s="82">
+      <c r="B45" s="81">
         <v>25</v>
       </c>
-      <c r="C45" s="83"/>
+      <c r="C45" s="70" t="s">
+        <v>83</v>
+      </c>
       <c r="D45" s="59"/>
       <c r="E45" s="59"/>
       <c r="F45" s="59"/>
       <c r="G45" s="60"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="78"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="59"/>
+      <c r="B46" s="81">
+        <v>26</v>
+      </c>
+      <c r="C46" s="70" t="s">
+        <v>86</v>
+      </c>
       <c r="D46" s="59"/>
       <c r="E46" s="59"/>
       <c r="F46" s="59"/>
       <c r="G46" s="60"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="78"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
+      <c r="B47" s="81">
+        <v>27</v>
+      </c>
+      <c r="C47" s="70" t="s">
+        <v>88</v>
+      </c>
       <c r="D47" s="59"/>
       <c r="E47" s="59"/>
       <c r="F47" s="59"/>
       <c r="G47" s="60"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="78"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
+      <c r="B48" s="81">
+        <v>28</v>
+      </c>
+      <c r="C48" s="70" t="s">
+        <v>89</v>
+      </c>
       <c r="D48" s="59"/>
       <c r="E48" s="59"/>
       <c r="F48" s="59"/>
       <c r="G48" s="60"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="78"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
+      <c r="B49" s="81">
+        <v>29</v>
+      </c>
+      <c r="C49" s="70" t="s">
+        <v>90</v>
+      </c>
       <c r="D49" s="59"/>
       <c r="E49" s="59"/>
       <c r="F49" s="59"/>
       <c r="G49" s="60"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="78"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
+      <c r="B50" s="81">
+        <v>30</v>
+      </c>
+      <c r="C50" s="70" t="s">
+        <v>91</v>
+      </c>
       <c r="D50" s="59"/>
       <c r="E50" s="59"/>
       <c r="F50" s="59"/>
       <c r="G50" s="60"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="78"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
+      <c r="B51" s="81">
+        <v>31</v>
+      </c>
+      <c r="C51" s="70" t="s">
+        <v>92</v>
+      </c>
       <c r="D51" s="59"/>
       <c r="E51" s="59"/>
       <c r="F51" s="59"/>
@@ -2583,7 +2734,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="78"/>
-      <c r="B52" s="59"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
       <c r="E52" s="59"/>
@@ -2599,14 +2750,68 @@
       <c r="F53" s="59"/>
       <c r="G53" s="60"/>
     </row>
-    <row r="54" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="84"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="76"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="78"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="60"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="78"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="60"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="78"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="60"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="78"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="60"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="78"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="60"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="78"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="60"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="82"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="76"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -2615,7 +2820,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ETML L,Normal"ETML&amp;C&amp;"-,Normal"Planification&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;"-,Normal"&amp;D - GGZ&amp;C&amp;"-,Normal"&amp;F - &amp;A&amp;R&amp;"-,Normal"Page &amp;P/&amp;N</oddFooter>
@@ -2626,12 +2831,62 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>99060</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15362" r:id="rId7" name="btnCreateDiagram">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>160020</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>198120</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15362" r:id="rId7" name="btnCreateDiagram"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </from>
@@ -2646,57 +2901,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="15362" r:id="rId7" name="btnCreateDiagram">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="15362" r:id="rId7" name="btnCreateDiagram"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -2712,15 +2917,15 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="1.5703125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="1.5546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="1.5703125" style="20"/>
+    <col min="1" max="1" width="17.88671875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="1.5546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
@@ -2735,7 +2940,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="94" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="16">
@@ -2744,7 +2949,7 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="98"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="22">
         <v>0</v>
       </c>
@@ -2770,9 +2975,9 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.85546875" customWidth="1"/>
+    <col min="2" max="2" width="51.88671875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2784,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
@@ -2815,16 +3020,16 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="20" customWidth="1"/>
     <col min="3" max="3" width="87" style="20" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="20"/>
+    <col min="4" max="4" width="44.109375" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -2832,9 +3037,9 @@
         <v>1</v>
       </c>
       <c r="C1" s="17"/>
-      <c r="D1" s="85"/>
-    </row>
-    <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="83"/>
+    </row>
+    <row r="2" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -2902,13 +3107,13 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" s="52" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="52" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>22</v>
       </c>
@@ -2919,7 +3124,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -3024,7 +3229,7 @@
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
     </row>
-    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
@@ -3065,13 +3270,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:colOff>594360</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>259080</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -3096,16 +3301,16 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="20" customWidth="1"/>
     <col min="3" max="3" width="87" style="20" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="20"/>
+    <col min="4" max="4" width="44.109375" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>14</v>
       </c>
@@ -3117,7 +3322,7 @@
       </c>
       <c r="D1" s="53"/>
     </row>
-    <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
@@ -3215,13 +3420,13 @@
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
     </row>
-    <row r="17" spans="1:8" s="52" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="52" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>22</v>
       </c>
@@ -3232,7 +3437,7 @@
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
     </row>
-    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
@@ -3337,7 +3542,7 @@
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
     </row>
-    <row r="36" spans="1:8" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -3378,13 +3583,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:colOff>594360</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>259080</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -3403,22 +3608,22 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080FAF2F-C534-499F-8C25-95E6F074E70C}">
   <sheetPr codeName="Feuil9"/>
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="20" customWidth="1"/>
     <col min="3" max="3" width="87" style="20" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="20"/>
+    <col min="4" max="4" width="48.33203125" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>14</v>
       </c>
@@ -3433,7 +3638,7 @@
         <v>45964</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
@@ -3454,7 +3659,7 @@
       <c r="B3" s="4">
         <v>12</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="86" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="9"/>
@@ -3462,19 +3667,19 @@
     <row r="4" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="89"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="92"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="90"/>
     </row>
     <row r="6" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="89"/>
+      <c r="C6" s="87"/>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -3537,13 +3742,13 @@
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
     </row>
-    <row r="17" spans="1:8" s="52" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="52" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>22</v>
       </c>
@@ -3551,18 +3756,18 @@
         <f>SUM(B3:B17)</f>
         <v>12</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="85" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="48"/>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
     </row>
-    <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
         <v>14</v>
       </c>
@@ -3577,7 +3782,7 @@
         <v>45971</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
         <v>3</v>
       </c>
@@ -3591,38 +3796,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <v>2</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="86" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="87" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="87" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="10"/>
@@ -3634,7 +3839,7 @@
       <c r="B25" s="2">
         <v>3</v>
       </c>
-      <c r="C25" s="94" t="s">
+      <c r="C25" s="87" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="10"/>
@@ -3642,14 +3847,14 @@
       <c r="G25" s="32"/>
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="94" t="s">
+      <c r="C26" s="87" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="10"/>
@@ -3657,14 +3862,14 @@
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
     </row>
-    <row r="27" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="2">
         <v>2</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="87" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="10"/>
@@ -3744,7 +3949,7 @@
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
     </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="11"/>
@@ -3753,7 +3958,7 @@
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
     </row>
-    <row r="37" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
         <v>22</v>
       </c>
@@ -3761,18 +3966,18 @@
         <f>SUM(B22:B36)</f>
         <v>12</v>
       </c>
-      <c r="C37" s="87" t="s">
+      <c r="C37" s="85" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="48"/>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="49"/>
       <c r="B38" s="49"/>
       <c r="C38" s="49"/>
       <c r="D38" s="49"/>
     </row>
-    <row r="39" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="42" t="s">
         <v>14</v>
       </c>
@@ -3787,7 +3992,7 @@
         <v>45978</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
         <v>3</v>
       </c>
@@ -3801,26 +4006,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
       </c>
-      <c r="C41" s="88" t="s">
+      <c r="C41" s="86" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="162" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="2">
         <v>11</v>
       </c>
-      <c r="C42" s="94" t="s">
+      <c r="C42" s="87" t="s">
         <v>45</v>
       </c>
       <c r="D42" s="10"/>
@@ -3897,13 +4102,13 @@
       <c r="C54" s="51"/>
       <c r="D54" s="51"/>
     </row>
-    <row r="55" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
     </row>
-    <row r="56" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>22</v>
       </c>
@@ -3911,18 +4116,18 @@
         <f>SUM(B41:B55)</f>
         <v>12</v>
       </c>
-      <c r="C56" s="87" t="s">
+      <c r="C56" s="85" t="s">
         <v>31</v>
       </c>
       <c r="D56" s="48"/>
     </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="49"/>
       <c r="B57" s="49"/>
       <c r="C57" s="49"/>
       <c r="D57" s="49"/>
     </row>
-    <row r="58" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="42" t="s">
         <v>14</v>
       </c>
@@ -3937,7 +4142,7 @@
         <v>45985</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="45" t="s">
         <v>3</v>
       </c>
@@ -3951,50 +4156,50 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B60" s="4">
         <v>7</v>
       </c>
-      <c r="C60" s="88" t="s">
+      <c r="C60" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="90"/>
-    </row>
-    <row r="61" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="D60" s="88"/>
+    </row>
+    <row r="61" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B61" s="2">
         <v>1</v>
       </c>
-      <c r="C61" s="94" t="s">
+      <c r="C61" s="87" t="s">
         <v>51</v>
       </c>
       <c r="D61" s="10"/>
     </row>
-    <row r="62" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B62" s="2">
         <v>2</v>
       </c>
-      <c r="C62" s="94" t="s">
+      <c r="C62" s="87" t="s">
         <v>52</v>
       </c>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B63" s="2">
         <v>2</v>
       </c>
-      <c r="C63" s="94" t="s">
+      <c r="C63" s="87" t="s">
         <v>54</v>
       </c>
       <c r="D63" s="10"/>
@@ -4002,7 +4207,7 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="94"/>
+      <c r="C64" s="87"/>
       <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4059,13 +4264,13 @@
       <c r="C73" s="51"/>
       <c r="D73" s="51"/>
     </row>
-    <row r="74" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
     </row>
-    <row r="75" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="47" t="s">
         <v>22</v>
       </c>
@@ -4073,18 +4278,18 @@
         <f>SUM(B60:B74)</f>
         <v>12</v>
       </c>
-      <c r="C75" s="87" t="s">
+      <c r="C75" s="85" t="s">
         <v>31</v>
       </c>
       <c r="D75" s="48"/>
     </row>
-    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="49"/>
       <c r="B76" s="49"/>
       <c r="C76" s="49"/>
       <c r="D76" s="49"/>
     </row>
-    <row r="77" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="42" t="s">
         <v>14</v>
       </c>
@@ -4099,7 +4304,7 @@
         <v>45992</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="45" t="s">
         <v>3</v>
       </c>
@@ -4120,31 +4325,31 @@
       <c r="B79" s="4">
         <v>6</v>
       </c>
-      <c r="C79" s="88" t="s">
+      <c r="C79" s="86" t="s">
         <v>55</v>
       </c>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B80" s="2">
         <v>3</v>
       </c>
-      <c r="C80" s="94" t="s">
+      <c r="C80" s="87" t="s">
         <v>57</v>
       </c>
       <c r="D80" s="10"/>
     </row>
-    <row r="81" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B81" s="2">
         <v>3</v>
       </c>
-      <c r="C81" s="94" t="s">
+      <c r="C81" s="87" t="s">
         <v>60</v>
       </c>
       <c r="D81" s="10"/>
@@ -4215,13 +4420,13 @@
       <c r="C92" s="51"/>
       <c r="D92" s="51"/>
     </row>
-    <row r="93" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
     </row>
-    <row r="94" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="47" t="s">
         <v>22</v>
       </c>
@@ -4229,18 +4434,18 @@
         <f>SUM(B79:B93)</f>
         <v>12</v>
       </c>
-      <c r="C94" s="87" t="s">
+      <c r="C94" s="85" t="s">
         <v>31</v>
       </c>
       <c r="D94" s="48"/>
     </row>
-    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="49"/>
       <c r="B95" s="49"/>
       <c r="C95" s="49"/>
       <c r="D95" s="49"/>
     </row>
-    <row r="96" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="42" t="s">
         <v>14</v>
       </c>
@@ -4255,7 +4460,7 @@
         <v>45999</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="45" t="s">
         <v>3</v>
       </c>
@@ -4276,14 +4481,14 @@
       <c r="B98" s="4">
         <v>12</v>
       </c>
-      <c r="C98" s="88"/>
-      <c r="D98" s="91"/>
+      <c r="C98" s="86"/>
+      <c r="D98" s="89"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="89"/>
-      <c r="D99" s="92"/>
+      <c r="C99" s="87"/>
+      <c r="D99" s="90"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
@@ -4357,13 +4562,13 @@
       <c r="C111" s="51"/>
       <c r="D111" s="51"/>
     </row>
-    <row r="112" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
     </row>
-    <row r="113" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="47" t="s">
         <v>22</v>
       </c>
@@ -4371,18 +4576,18 @@
         <f>SUM(B98:B112)</f>
         <v>12</v>
       </c>
-      <c r="C113" s="87" t="s">
+      <c r="C113" s="85" t="s">
         <v>31</v>
       </c>
       <c r="D113" s="48"/>
     </row>
-    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="49"/>
       <c r="B114" s="49"/>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
     </row>
-    <row r="115" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="42" t="s">
         <v>14</v>
       </c>
@@ -4397,7 +4602,7 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="45" t="s">
         <v>3</v>
       </c>
@@ -4411,208 +4616,284 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B117" s="4">
         <v>1</v>
       </c>
-      <c r="C117" s="88" t="s">
+      <c r="C117" s="86" t="s">
         <v>64</v>
       </c>
       <c r="D117" s="9"/>
     </row>
-    <row r="118" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B118" s="2">
         <v>3</v>
       </c>
-      <c r="C118" s="94" t="s">
+      <c r="C118" s="87" t="s">
         <v>65</v>
       </c>
       <c r="D118" s="10"/>
     </row>
-    <row r="119" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B119" s="2">
         <v>1</v>
       </c>
-      <c r="C119" s="89" t="s">
+      <c r="C119" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="D119" s="92"/>
-    </row>
-    <row r="120" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="D119" s="90"/>
+    </row>
+    <row r="120" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B120" s="2">
         <v>4</v>
       </c>
-      <c r="C120" s="94" t="s">
+      <c r="C120" s="87" t="s">
         <v>68</v>
       </c>
       <c r="D120" s="10"/>
     </row>
-    <row r="121" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B121" s="2">
         <v>3</v>
       </c>
-      <c r="C121" s="94" t="s">
+      <c r="C121" s="87" t="s">
         <v>70</v>
       </c>
       <c r="D121" s="10"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="10"/>
+      <c r="C122" s="98" t="s">
+        <v>71</v>
+      </c>
       <c r="D122" s="10"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="10"/>
+      <c r="C123" s="97" t="s">
+        <v>72</v>
+      </c>
       <c r="D123" s="10"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="10"/>
+    <row r="124" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" s="2">
+        <v>2</v>
+      </c>
+      <c r="C124" s="101" t="s">
+        <v>75</v>
+      </c>
       <c r="D124" s="10"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="10"/>
+    <row r="125" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B125" s="2">
+        <v>1</v>
+      </c>
+      <c r="C125" s="99" t="s">
+        <v>74</v>
+      </c>
       <c r="D125" s="10"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="10"/>
+    <row r="126" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" s="2">
+        <v>2</v>
+      </c>
+      <c r="C126" s="87" t="s">
+        <v>81</v>
+      </c>
       <c r="D126" s="10"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="10"/>
+    <row r="127" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" s="2">
+        <v>4</v>
+      </c>
+      <c r="C127" s="86" t="s">
+        <v>79</v>
+      </c>
       <c r="D127" s="10"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="10"/>
+    <row r="128" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A128" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="B128" s="2">
+        <v>4</v>
+      </c>
+      <c r="C128" s="96" t="s">
+        <v>82</v>
+      </c>
       <c r="D128" s="10"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="50"/>
-      <c r="B129" s="50"/>
-      <c r="C129" s="51"/>
+    <row r="129" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A129" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B129" s="50">
+        <v>1</v>
+      </c>
+      <c r="C129" s="102" t="s">
+        <v>85</v>
+      </c>
       <c r="D129" s="51"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="50"/>
-      <c r="B130" s="50"/>
-      <c r="C130" s="51"/>
+    <row r="130" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A130" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B130" s="50">
+        <v>4</v>
+      </c>
+      <c r="C130" s="102" t="s">
+        <v>87</v>
+      </c>
       <c r="D130" s="51"/>
     </row>
-    <row r="131" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-    </row>
-    <row r="132" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="47" t="s">
+    <row r="131" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A131" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B131" s="50">
+        <v>3</v>
+      </c>
+      <c r="C131" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="D131" s="51"/>
+    </row>
+    <row r="132" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A132" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B132" s="50">
+        <v>3</v>
+      </c>
+      <c r="C132" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="D132" s="51"/>
+    </row>
+    <row r="133" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A133" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B133" s="50">
+        <v>4</v>
+      </c>
+      <c r="C133" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="D133" s="51"/>
+    </row>
+    <row r="134" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A134" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B134" s="50">
+        <v>2</v>
+      </c>
+      <c r="C134" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="D134" s="51"/>
+    </row>
+    <row r="135" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B135" s="3">
+        <v>5</v>
+      </c>
+      <c r="C135" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="D135" s="11"/>
+    </row>
+    <row r="136" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B132" s="47">
-        <f>SUM(B117:B131)</f>
-        <v>12</v>
-      </c>
-      <c r="C132" s="87" t="s">
+      <c r="B136" s="47">
+        <f>SUM(B117:B135)</f>
+        <v>47</v>
+      </c>
+      <c r="C136" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D132" s="48"/>
-    </row>
-    <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="49"/>
-      <c r="B133" s="49"/>
-      <c r="C133" s="49"/>
-      <c r="D133" s="49"/>
-    </row>
-    <row r="134" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="42" t="s">
+      <c r="D136" s="48"/>
+    </row>
+    <row r="137" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="49"/>
+      <c r="B137" s="49"/>
+      <c r="C137" s="49"/>
+      <c r="D137" s="49"/>
+    </row>
+    <row r="138" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B134" s="43">
+      <c r="B138" s="43">
         <v>8</v>
       </c>
-      <c r="C134" s="44" t="s">
+      <c r="C138" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D134" s="53">
+      <c r="D138" s="53">
         <f>$D$115+7</f>
         <v>46013</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="45" t="s">
+    <row r="139" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B135" s="46" t="s">
+      <c r="B139" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C135" s="45" t="s">
+      <c r="C139" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D135" s="45" t="s">
+      <c r="D139" s="45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="93"/>
-      <c r="D136" s="9"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="94"/>
-      <c r="D137" s="10"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-    </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
+      <c r="A140" s="5"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="91"/>
+      <c r="D140" s="9"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
-      <c r="C141" s="10"/>
+      <c r="C141" s="87"/>
       <c r="D141" s="10"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4634,62 +4915,86 @@
       <c r="D144" s="10"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
+      <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
+      <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
+      <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="50"/>
-      <c r="B148" s="50"/>
-      <c r="C148" s="51"/>
-      <c r="D148" s="51"/>
+      <c r="A148" s="1"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="50"/>
-      <c r="B149" s="50"/>
-      <c r="C149" s="51"/>
-      <c r="D149" s="51"/>
-    </row>
-    <row r="150" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-    </row>
-    <row r="151" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="47" t="s">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="50"/>
+      <c r="B152" s="50"/>
+      <c r="C152" s="51"/>
+      <c r="D152" s="51"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="50"/>
+      <c r="B153" s="50"/>
+      <c r="C153" s="51"/>
+      <c r="D153" s="51"/>
+    </row>
+    <row r="154" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+    </row>
+    <row r="155" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B151" s="47">
-        <f>SUM(B136:B150)</f>
+      <c r="B155" s="47">
+        <f>SUM(B140:B154)</f>
         <v>0</v>
       </c>
-      <c r="C151" s="87" t="s">
+      <c r="C155" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D151" s="48"/>
-    </row>
-    <row r="152" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A152" s="49"/>
-      <c r="B152" s="49"/>
-      <c r="C152" s="49"/>
-      <c r="D152" s="49"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="86" t="s">
+      <c r="D155" s="48"/>
+    </row>
+    <row r="156" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A156" s="49"/>
+      <c r="B156" s="49"/>
+      <c r="C156" s="49"/>
+      <c r="D156" s="49"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="84" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4699,14 +5004,14 @@
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B3:B17 B22:B36 B41:B55 B60:B74 B136:B150 B98:B112 B117:B131 B79:B93" xr:uid="{B23B642E-0B29-4ED8-A409-C50EB7CC17BF}">
+    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B3:B17 B22:B36 B41:B55 B60:B74 B140:B154 B98:B112 B117:B135 B79:B93" xr:uid="{B23B642E-0B29-4ED8-A409-C50EB7CC17BF}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B18 B37 B56 B75 B94 B113 B132 B151" xr:uid="{C02FA86D-12F2-40ED-8F5D-F7684A1E2EDD}">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B18 B37 B56 B75 B94 B113 B136 B155" xr:uid="{C02FA86D-12F2-40ED-8F5D-F7684A1E2EDD}">
       <formula1>0</formula1>
       <formula2>NbPerWeek * NbQuartPer</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A17 A22:A36 A41:A55 A60:A74 A136:A150 A98:A112 A117:A131 A79:A93" xr:uid="{BCBC0613-73E6-47AF-B0DB-7981EF783ABA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A17 A22:A36 A41:A55 A60:A74 A140:A154 A98:A112 A117:A135 A79:A93" xr:uid="{BCBC0613-73E6-47AF-B0DB-7981EF783ABA}">
       <formula1>lstTasks</formula1>
     </dataValidation>
   </dataValidations>
@@ -4722,13 +5027,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:colOff>594360</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>259080</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -4745,6 +5050,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Belge" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="14" ma:contentTypeDescription="Yeni belge oluşturun." ma:contentTypeScope="" ma:versionID="ee0afad02cec1cb5c008e069b7696935">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="071b3019c14a3acff1c11c5229ff0248" ns2:_="" ns3:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -4973,27 +5298,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C29126A-0525-4FCA-A870-5924A033DD5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15235525-7A96-4FDC-BE0C-FC0EC8076A2A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5010,23 +5334,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C29126A-0525-4FCA-A870-5924A033DD5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/P_Bulles-Flashcard/T-P_Bulles-Flashcards-MatiasDenis-JDT.xlsx
+++ b/P_Bulles-Flashcard/T-P_Bulles-Flashcards-MatiasDenis-JDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matia\Desktop\P_Bulles-Flashcards\P_Bulles-Flashcard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C35398A-F1D8-49E6-A764-FB0AE2675FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593EE5A8-E59F-44DC-978C-C3E1B524D3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="datDateBegin">Donnees!$C$9</definedName>
-    <definedName name="lstTasks">Donnees!$C$20:$C$51</definedName>
+    <definedName name="lstTasks">Donnees!$C$20:$C$57</definedName>
     <definedName name="NbPerWeek">Donnees!$C$12</definedName>
     <definedName name="NbQuartPer">Donnees!$C$13</definedName>
     <definedName name="NbWeeks">Donnees!$C$11</definedName>
@@ -30,7 +30,7 @@
     <definedName name="objPlanifWeek">PlanificationWeek!$A$1:$D$14</definedName>
     <definedName name="objRealizedWeek" localSheetId="4">achievementWeek!$A$1:$D$19</definedName>
     <definedName name="objRealizedWeek" localSheetId="5">JNLTRAV!$A$1:$D$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Donnees!$A$1:$G$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Donnees!$A$1:$G$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="107">
   <si>
     <t>Module :</t>
   </si>
@@ -476,6 +476,35 @@
   </si>
   <si>
     <t>Création des vues login.edge et signup.edge, ajout d’une vue minimale play.edge, et ajustements des vues decks/flashcards pour utiliser les routes mises à jour et éviter les erreurs de lookup (decks.index → home).</t>
+  </si>
+  <si>
+    <t>Stylisation avec CSS</t>
+  </si>
+  <si>
+    <t>mardi 30.12.25</t>
+  </si>
+  <si>
+    <t>Ajout des classes CSS pour espacer correctement les champs de formulaire, ajout des styles d'alertes pour afficher les messages succès/erreur, mise en forme des liens et formulaires d'actions dans les tableaux via .containerOptions, uniformisation du style des boutons de connexion et de déconnexion.</t>
+  </si>
+  <si>
+    <t>Sécurisation des decks/flashcards + validation FR</t>
+  </si>
+  <si>
+    <t>Un filtrage a été ajouté sur la liste des decks afin d’afficher les decks publiés pour les invités, uniquement les decks du user connecté, et tous les decks pour l’admin.
+Ensuite, des contrôles de droits owner/admin ont été intégrés sur toutes les actions sensibles (voir/éditer/supprimer/publier/dépublier) côté decks et flashcards, avec un message “Accès interdit” et redirection si besoin, ainsi que la règle du cahier des charges “impossible de publier un deck sans flashcards”.
+Enfin, la validation des flashcards a été améliorée avec des messages en français via un SimpleMessagesProvider, utilisé dans store et update.</t>
+  </si>
+  <si>
+    <t>Inscription sécurisée et header amélioré</t>
+  </si>
+  <si>
+    <t>Ajout d’une validation complète de l’inscription avec messages en français (champs obligatoires, longueurs, confirmation, unicité du username) et affichage détaillé des erreurs dans la vue. Ajustement du header pour corriger l’affichage en mode connecté.</t>
+  </si>
+  <si>
+    <t>Nettoyage du CSS</t>
+  </si>
+  <si>
+    <t>Regroupement des règles redondantes et harmonisation des styles des liens/boutons (actions + header).</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1166,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1399,20 +1428,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1424,20 +1439,37 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1505,7 +1537,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1561,9 +1593,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>53340</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1808,7 +1840,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>245745</xdr:colOff>
+          <xdr:colOff>259080</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -2088,10 +2120,10 @@
   <sheetPr codeName="Feuil1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="B19:C51"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A42" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2307,10 +2339,10 @@
     </row>
     <row r="19" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78"/>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="93"/>
+      <c r="C19" s="100"/>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
       <c r="F19" s="59"/>
@@ -2719,7 +2751,7 @@
       <c r="F50" s="59"/>
       <c r="G50" s="60"/>
     </row>
-    <row r="51" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="78"/>
       <c r="B51" s="81">
         <v>31</v>
@@ -2732,55 +2764,71 @@
       <c r="F51" s="59"/>
       <c r="G51" s="60"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="78"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="59"/>
+      <c r="B52" s="81">
+        <v>32</v>
+      </c>
+      <c r="C52" s="70" t="s">
+        <v>98</v>
+      </c>
       <c r="D52" s="59"/>
       <c r="E52" s="59"/>
       <c r="F52" s="59"/>
       <c r="G52" s="60"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="78"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
+      <c r="B53" s="81">
+        <v>33</v>
+      </c>
+      <c r="C53" s="70" t="s">
+        <v>101</v>
+      </c>
       <c r="D53" s="59"/>
       <c r="E53" s="59"/>
       <c r="F53" s="59"/>
       <c r="G53" s="60"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="78"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
+      <c r="B54" s="81">
+        <v>34</v>
+      </c>
+      <c r="C54" s="70" t="s">
+        <v>103</v>
+      </c>
       <c r="D54" s="59"/>
       <c r="E54" s="59"/>
       <c r="F54" s="59"/>
       <c r="G54" s="60"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="78"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
+      <c r="B55" s="81">
+        <v>35</v>
+      </c>
+      <c r="C55" s="70" t="s">
+        <v>105</v>
+      </c>
       <c r="D55" s="59"/>
       <c r="E55" s="59"/>
       <c r="F55" s="59"/>
       <c r="G55" s="60"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="78"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="70"/>
       <c r="D56" s="59"/>
       <c r="E56" s="59"/>
       <c r="F56" s="59"/>
       <c r="G56" s="60"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="78"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="70"/>
       <c r="D57" s="59"/>
       <c r="E57" s="59"/>
       <c r="F57" s="59"/>
@@ -2788,7 +2836,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="78"/>
-      <c r="B58" s="59"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="59"/>
       <c r="D58" s="59"/>
       <c r="E58" s="59"/>
@@ -2804,14 +2852,68 @@
       <c r="F59" s="59"/>
       <c r="G59" s="60"/>
     </row>
-    <row r="60" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="82"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="76"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="78"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="60"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="78"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="60"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="78"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="60"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="78"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="78"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="60"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="78"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+    </row>
+    <row r="66" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="82"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="76"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -2820,7 +2922,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ETML L,Normal"ETML&amp;C&amp;"-,Normal"Planification&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;"-,Normal"&amp;D - GGZ&amp;C&amp;"-,Normal"&amp;F - &amp;A&amp;R&amp;"-,Normal"Page &amp;P/&amp;N</oddFooter>
@@ -2831,27 +2933,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>99060</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2881,27 +2983,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>99060</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -2940,7 +3042,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="101" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="16">
@@ -2949,7 +3051,7 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="95"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="22">
         <v>0</v>
       </c>
@@ -3608,10 +3710,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080FAF2F-C534-499F-8C25-95E6F074E70C}">
   <sheetPr codeName="Feuil9"/>
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4679,7 +4781,7 @@
     <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="98" t="s">
+      <c r="C122" s="93" t="s">
         <v>71</v>
       </c>
       <c r="D122" s="10"/>
@@ -4687,7 +4789,7 @@
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="97" t="s">
+      <c r="C123" s="92" t="s">
         <v>72</v>
       </c>
       <c r="D123" s="10"/>
@@ -4699,7 +4801,7 @@
       <c r="B124" s="2">
         <v>2</v>
       </c>
-      <c r="C124" s="101" t="s">
+      <c r="C124" s="96" t="s">
         <v>75</v>
       </c>
       <c r="D124" s="10"/>
@@ -4711,7 +4813,7 @@
       <c r="B125" s="2">
         <v>1</v>
       </c>
-      <c r="C125" s="99" t="s">
+      <c r="C125" s="94" t="s">
         <v>74</v>
       </c>
       <c r="D125" s="10"/>
@@ -4741,13 +4843,13 @@
       <c r="D127" s="10"/>
     </row>
     <row r="128" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A128" s="100" t="s">
+      <c r="A128" s="95" t="s">
         <v>80</v>
       </c>
       <c r="B128" s="2">
         <v>4</v>
       </c>
-      <c r="C128" s="96" t="s">
+      <c r="C128" s="87" t="s">
         <v>82</v>
       </c>
       <c r="D128" s="10"/>
@@ -4759,7 +4861,7 @@
       <c r="B129" s="50">
         <v>1</v>
       </c>
-      <c r="C129" s="102" t="s">
+      <c r="C129" s="97" t="s">
         <v>85</v>
       </c>
       <c r="D129" s="51"/>
@@ -4771,7 +4873,7 @@
       <c r="B130" s="50">
         <v>4</v>
       </c>
-      <c r="C130" s="102" t="s">
+      <c r="C130" s="97" t="s">
         <v>87</v>
       </c>
       <c r="D130" s="51"/>
@@ -4783,7 +4885,7 @@
       <c r="B131" s="50">
         <v>3</v>
       </c>
-      <c r="C131" s="102" t="s">
+      <c r="C131" s="97" t="s">
         <v>93</v>
       </c>
       <c r="D131" s="51"/>
@@ -4795,7 +4897,7 @@
       <c r="B132" s="50">
         <v>3</v>
       </c>
-      <c r="C132" s="102" t="s">
+      <c r="C132" s="97" t="s">
         <v>94</v>
       </c>
       <c r="D132" s="51"/>
@@ -4807,7 +4909,7 @@
       <c r="B133" s="50">
         <v>4</v>
       </c>
-      <c r="C133" s="102" t="s">
+      <c r="C133" s="97" t="s">
         <v>95</v>
       </c>
       <c r="D133" s="51"/>
@@ -4819,7 +4921,7 @@
       <c r="B134" s="50">
         <v>2</v>
       </c>
-      <c r="C134" s="102" t="s">
+      <c r="C134" s="97" t="s">
         <v>96</v>
       </c>
       <c r="D134" s="51"/>
@@ -4831,170 +4933,250 @@
       <c r="B135" s="3">
         <v>5</v>
       </c>
-      <c r="C135" s="103" t="s">
+      <c r="C135" s="98" t="s">
         <v>97</v>
       </c>
       <c r="D135" s="11"/>
     </row>
     <row r="136" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="47" t="s">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="D136" s="11"/>
+    </row>
+    <row r="137" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B137" s="3">
+        <v>6</v>
+      </c>
+      <c r="C137" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="D137" s="11"/>
+    </row>
+    <row r="138" spans="1:4" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B138" s="3">
+        <v>8</v>
+      </c>
+      <c r="C138" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D138" s="11"/>
+    </row>
+    <row r="139" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B139" s="3">
+        <v>3</v>
+      </c>
+      <c r="C139" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="D139" s="11"/>
+    </row>
+    <row r="140" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1</v>
+      </c>
+      <c r="C140" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="D140" s="11"/>
+    </row>
+    <row r="141" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="98"/>
+      <c r="D141" s="11"/>
+    </row>
+    <row r="142" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="98"/>
+      <c r="D142" s="11"/>
+    </row>
+    <row r="143" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="98"/>
+      <c r="D143" s="11"/>
+    </row>
+    <row r="144" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="98"/>
+      <c r="D144" s="11"/>
+    </row>
+    <row r="145" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B136" s="47">
-        <f>SUM(B117:B135)</f>
-        <v>47</v>
-      </c>
-      <c r="C136" s="85" t="s">
+      <c r="B145" s="47">
+        <f>SUM(B117:B144)</f>
+        <v>65</v>
+      </c>
+      <c r="C145" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D136" s="48"/>
-    </row>
-    <row r="137" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="49"/>
-      <c r="B137" s="49"/>
-      <c r="C137" s="49"/>
-      <c r="D137" s="49"/>
-    </row>
-    <row r="138" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="42" t="s">
+      <c r="D145" s="48"/>
+    </row>
+    <row r="146" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="49"/>
+      <c r="B146" s="49"/>
+      <c r="C146" s="49"/>
+      <c r="D146" s="49"/>
+    </row>
+    <row r="147" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B138" s="43">
+      <c r="B147" s="43">
         <v>8</v>
       </c>
-      <c r="C138" s="44" t="s">
+      <c r="C147" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D138" s="53">
+      <c r="D147" s="53">
         <f>$D$115+7</f>
         <v>46013</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="45" t="s">
+    <row r="148" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="46" t="s">
+      <c r="B148" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C139" s="45" t="s">
+      <c r="C148" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D139" s="45" t="s">
+      <c r="D148" s="45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="91"/>
-      <c r="D140" s="9"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="87"/>
-      <c r="D141" s="10"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-    </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
+      <c r="A149" s="5"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="91"/>
+      <c r="D149" s="9"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
+      <c r="A150" s="1"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="10"/>
+      <c r="C150" s="87"/>
       <c r="D150" s="10"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
+      <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="50"/>
-      <c r="B152" s="50"/>
-      <c r="C152" s="51"/>
-      <c r="D152" s="51"/>
+      <c r="A152" s="1"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="50"/>
-      <c r="B153" s="50"/>
-      <c r="C153" s="51"/>
-      <c r="D153" s="51"/>
-    </row>
-    <row r="154" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
-    </row>
-    <row r="155" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="47" t="s">
+      <c r="A153" s="1"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="50"/>
+      <c r="B161" s="50"/>
+      <c r="C161" s="51"/>
+      <c r="D161" s="51"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="50"/>
+      <c r="B162" s="50"/>
+      <c r="C162" s="51"/>
+      <c r="D162" s="51"/>
+    </row>
+    <row r="163" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+    </row>
+    <row r="164" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B155" s="47">
-        <f>SUM(B140:B154)</f>
+      <c r="B164" s="47">
+        <f>SUM(B149:B163)</f>
         <v>0</v>
       </c>
-      <c r="C155" s="85" t="s">
+      <c r="C164" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D155" s="48"/>
-    </row>
-    <row r="156" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A156" s="49"/>
-      <c r="B156" s="49"/>
-      <c r="C156" s="49"/>
-      <c r="D156" s="49"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="84" t="s">
+      <c r="D164" s="48"/>
+    </row>
+    <row r="165" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A165" s="49"/>
+      <c r="B165" s="49"/>
+      <c r="C165" s="49"/>
+      <c r="D165" s="49"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="84" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5004,14 +5186,14 @@
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B3:B17 B22:B36 B41:B55 B60:B74 B140:B154 B98:B112 B117:B135 B79:B93" xr:uid="{B23B642E-0B29-4ED8-A409-C50EB7CC17BF}">
+    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B3:B17 B22:B36 B41:B55 B60:B74 B149:B163 B98:B112 B79:B93 B117:B144" xr:uid="{B23B642E-0B29-4ED8-A409-C50EB7CC17BF}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B18 B37 B56 B75 B94 B113 B136 B155" xr:uid="{C02FA86D-12F2-40ED-8F5D-F7684A1E2EDD}">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B18 B37 B56 B75 B94 B113 B145 B164" xr:uid="{C02FA86D-12F2-40ED-8F5D-F7684A1E2EDD}">
       <formula1>0</formula1>
       <formula2>NbPerWeek * NbQuartPer</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A17 A22:A36 A41:A55 A60:A74 A140:A154 A98:A112 A117:A135 A79:A93" xr:uid="{BCBC0613-73E6-47AF-B0DB-7981EF783ABA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A17 A22:A36 A41:A55 A60:A74 A149:A163 A98:A112 A79:A93 A117:A144" xr:uid="{BCBC0613-73E6-47AF-B0DB-7981EF783ABA}">
       <formula1>lstTasks</formula1>
     </dataValidation>
   </dataValidations>
@@ -5050,26 +5232,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Belge" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="14" ma:contentTypeDescription="Yeni belge oluşturun." ma:contentTypeScope="" ma:versionID="ee0afad02cec1cb5c008e069b7696935">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="071b3019c14a3acff1c11c5229ff0248" ns2:_="" ns3:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -5298,10 +5460,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15235525-7A96-4FDC-BE0C-FC0EC8076A2A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5318,20 +5511,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15235525-7A96-4FDC-BE0C-FC0EC8076A2A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/P_Bulles-Flashcard/T-P_Bulles-Flashcards-MatiasDenis-JDT.xlsx
+++ b/P_Bulles-Flashcard/T-P_Bulles-Flashcards-MatiasDenis-JDT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matia\Desktop\P_Bulles-Flashcards\P_Bulles-Flashcard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pb58unc\Desktop\P_Bulles-Flashcards\P_Bulles-Flashcard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593EE5A8-E59F-44DC-978C-C3E1B524D3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5935DDB2-9B2B-43AC-BE71-00A46587B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees" sheetId="7" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="111">
   <si>
     <t>Module :</t>
   </si>
@@ -505,6 +505,18 @@
   </si>
   <si>
     <t>Regroupement des règles redondantes et harmonisation des styles des liens/boutons (actions + header).</t>
+  </si>
+  <si>
+    <t>Création de decks avec le user Edouard et le mdp admin dans le seeder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création de decks pour tester l'application </t>
+  </si>
+  <si>
+    <t>Création de decks avec l'utilisateur Edouard et son mot de passe admin afin de tester les fonctionnalités connexion/déconnexion, ajout de decks/flashcards, modifier/supprimer, publier/dépublier.</t>
+  </si>
+  <si>
+    <t>Rendu final du projet</t>
   </si>
 </sst>
 </file>
@@ -1424,10 +1436,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1454,22 +1462,26 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1529,15 +1541,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1587,15 +1599,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1645,7 +1657,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
@@ -1708,13 +1720,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>594360</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>259080</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -1771,13 +1783,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>594360</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>259080</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -1834,13 +1846,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>594360</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>259080</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -2122,19 +2134,19 @@
   </sheetPr>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A42" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="57" customWidth="1"/>
-    <col min="2" max="2" width="55.109375" style="57" customWidth="1"/>
-    <col min="3" max="3" width="88.5546875" style="57" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" style="57" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" style="57"/>
-    <col min="7" max="7" width="3.33203125" style="57" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="57"/>
+    <col min="1" max="1" width="16.5703125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="88.5703125" style="57" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" style="57" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" style="57"/>
+    <col min="7" max="7" width="3.28515625" style="57" customWidth="1"/>
+    <col min="8" max="16384" width="11.5703125" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2146,7 +2158,7 @@
       <c r="F1" s="55"/>
       <c r="G1" s="56"/>
     </row>
-    <row r="2" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58"/>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
@@ -2155,7 +2167,7 @@
       <c r="F2" s="59"/>
       <c r="G2" s="60"/>
     </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
       <c r="B3" s="61" t="s">
         <v>0</v>
@@ -2168,7 +2180,7 @@
       <c r="F3" s="59"/>
       <c r="G3" s="60"/>
     </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
       <c r="B4" s="63" t="s">
         <v>4</v>
@@ -2181,7 +2193,7 @@
       <c r="F4" s="59"/>
       <c r="G4" s="60"/>
     </row>
-    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
@@ -2194,7 +2206,7 @@
       <c r="F5" s="59"/>
       <c r="G5" s="60"/>
     </row>
-    <row r="6" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58"/>
       <c r="B6" s="65" t="s">
         <v>2</v>
@@ -2216,7 +2228,7 @@
       <c r="F7" s="59"/>
       <c r="G7" s="60"/>
     </row>
-    <row r="8" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -2225,7 +2237,7 @@
       <c r="F8" s="59"/>
       <c r="G8" s="60"/>
     </row>
-    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
       <c r="B9" s="61" t="s">
         <v>9</v>
@@ -2238,7 +2250,7 @@
       <c r="F9" s="59"/>
       <c r="G9" s="60"/>
     </row>
-    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
       <c r="B10" s="68" t="s">
         <v>8</v>
@@ -2251,7 +2263,7 @@
       <c r="F10" s="59"/>
       <c r="G10" s="60"/>
     </row>
-    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
       <c r="B11" s="68" t="s">
         <v>10</v>
@@ -2264,7 +2276,7 @@
       <c r="F11" s="59"/>
       <c r="G11" s="60"/>
     </row>
-    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
       <c r="B12" s="63" t="s">
         <v>11</v>
@@ -2277,7 +2289,7 @@
       <c r="F12" s="59"/>
       <c r="G12" s="60"/>
     </row>
-    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
       <c r="B13" s="63" t="s">
         <v>12</v>
@@ -2290,7 +2302,7 @@
       <c r="F13" s="59"/>
       <c r="G13" s="60"/>
     </row>
-    <row r="14" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="72"/>
       <c r="C14" s="73" t="s">
@@ -2310,7 +2322,7 @@
       <c r="F15" s="59"/>
       <c r="G15" s="60"/>
     </row>
-    <row r="16" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="74"/>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
@@ -2328,7 +2340,7 @@
       <c r="F17" s="55"/>
       <c r="G17" s="56"/>
     </row>
-    <row r="18" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78"/>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
@@ -2339,16 +2351,16 @@
     </row>
     <row r="19" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78"/>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="100"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
       <c r="F19" s="59"/>
       <c r="G19" s="60"/>
     </row>
-    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="79" t="s">
         <v>20</v>
@@ -2361,7 +2373,7 @@
       <c r="F20" s="59"/>
       <c r="G20" s="60"/>
     </row>
-    <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
       <c r="B21" s="79">
         <v>1</v>
@@ -2374,7 +2386,7 @@
       <c r="F21" s="59"/>
       <c r="G21" s="60"/>
     </row>
-    <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A22" s="78"/>
       <c r="B22" s="79">
         <v>2</v>
@@ -2387,7 +2399,7 @@
       <c r="F22" s="59"/>
       <c r="G22" s="60"/>
     </row>
-    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
       <c r="B23" s="81">
         <v>3</v>
@@ -2400,7 +2412,7 @@
       <c r="F23" s="59"/>
       <c r="G23" s="60"/>
     </row>
-    <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
       <c r="B24" s="79">
         <v>4</v>
@@ -2413,7 +2425,7 @@
       <c r="F24" s="59"/>
       <c r="G24" s="60"/>
     </row>
-    <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="78"/>
       <c r="B25" s="79">
         <v>5</v>
@@ -2426,7 +2438,7 @@
       <c r="F25" s="59"/>
       <c r="G25" s="60"/>
     </row>
-    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A26" s="78"/>
       <c r="B26" s="81">
         <v>6</v>
@@ -2439,7 +2451,7 @@
       <c r="F26" s="59"/>
       <c r="G26" s="60"/>
     </row>
-    <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A27" s="78"/>
       <c r="B27" s="79">
         <v>7</v>
@@ -2452,7 +2464,7 @@
       <c r="F27" s="59"/>
       <c r="G27" s="60"/>
     </row>
-    <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A28" s="78"/>
       <c r="B28" s="79">
         <v>8</v>
@@ -2465,7 +2477,7 @@
       <c r="F28" s="59"/>
       <c r="G28" s="60"/>
     </row>
-    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A29" s="78"/>
       <c r="B29" s="81">
         <v>9</v>
@@ -2478,7 +2490,7 @@
       <c r="F29" s="59"/>
       <c r="G29" s="60"/>
     </row>
-    <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A30" s="78"/>
       <c r="B30" s="79">
         <v>10</v>
@@ -2491,7 +2503,7 @@
       <c r="F30" s="59"/>
       <c r="G30" s="60"/>
     </row>
-    <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="78"/>
       <c r="B31" s="79">
         <v>11</v>
@@ -2504,7 +2516,7 @@
       <c r="F31" s="59"/>
       <c r="G31" s="60"/>
     </row>
-    <row r="32" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="78"/>
       <c r="B32" s="81">
         <v>12</v>
@@ -2517,7 +2529,7 @@
       <c r="F32" s="59"/>
       <c r="G32" s="60"/>
     </row>
-    <row r="33" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A33" s="78"/>
       <c r="B33" s="79">
         <v>13</v>
@@ -2530,7 +2542,7 @@
       <c r="F33" s="59"/>
       <c r="G33" s="60"/>
     </row>
-    <row r="34" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A34" s="78"/>
       <c r="B34" s="79">
         <v>14</v>
@@ -2543,7 +2555,7 @@
       <c r="F34" s="59"/>
       <c r="G34" s="60"/>
     </row>
-    <row r="35" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A35" s="78"/>
       <c r="B35" s="81">
         <v>15</v>
@@ -2556,7 +2568,7 @@
       <c r="F35" s="59"/>
       <c r="G35" s="60"/>
     </row>
-    <row r="36" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A36" s="78"/>
       <c r="B36" s="79">
         <v>16</v>
@@ -2569,7 +2581,7 @@
       <c r="F36" s="59"/>
       <c r="G36" s="60"/>
     </row>
-    <row r="37" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A37" s="78"/>
       <c r="B37" s="79">
         <v>17</v>
@@ -2582,7 +2594,7 @@
       <c r="F37" s="59"/>
       <c r="G37" s="60"/>
     </row>
-    <row r="38" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A38" s="78"/>
       <c r="B38" s="81">
         <v>18</v>
@@ -2595,7 +2607,7 @@
       <c r="F38" s="59"/>
       <c r="G38" s="60"/>
     </row>
-    <row r="39" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A39" s="78"/>
       <c r="B39" s="79">
         <v>19</v>
@@ -2608,7 +2620,7 @@
       <c r="F39" s="59"/>
       <c r="G39" s="60"/>
     </row>
-    <row r="40" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A40" s="78"/>
       <c r="B40" s="79">
         <v>20</v>
@@ -2621,7 +2633,7 @@
       <c r="F40" s="59"/>
       <c r="G40" s="60"/>
     </row>
-    <row r="41" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A41" s="78"/>
       <c r="B41" s="81">
         <v>21</v>
@@ -2634,7 +2646,7 @@
       <c r="F41" s="59"/>
       <c r="G41" s="60"/>
     </row>
-    <row r="42" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A42" s="78"/>
       <c r="B42" s="79">
         <v>22</v>
@@ -2647,7 +2659,7 @@
       <c r="F42" s="59"/>
       <c r="G42" s="60"/>
     </row>
-    <row r="43" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A43" s="78"/>
       <c r="B43" s="79">
         <v>23</v>
@@ -2660,7 +2672,7 @@
       <c r="F43" s="59"/>
       <c r="G43" s="60"/>
     </row>
-    <row r="44" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="78"/>
       <c r="B44" s="81">
         <v>24</v>
@@ -2673,7 +2685,7 @@
       <c r="F44" s="59"/>
       <c r="G44" s="60"/>
     </row>
-    <row r="45" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A45" s="78"/>
       <c r="B45" s="81">
         <v>25</v>
@@ -2686,7 +2698,7 @@
       <c r="F45" s="59"/>
       <c r="G45" s="60"/>
     </row>
-    <row r="46" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A46" s="78"/>
       <c r="B46" s="81">
         <v>26</v>
@@ -2699,7 +2711,7 @@
       <c r="F46" s="59"/>
       <c r="G46" s="60"/>
     </row>
-    <row r="47" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A47" s="78"/>
       <c r="B47" s="81">
         <v>27</v>
@@ -2712,7 +2724,7 @@
       <c r="F47" s="59"/>
       <c r="G47" s="60"/>
     </row>
-    <row r="48" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A48" s="78"/>
       <c r="B48" s="81">
         <v>28</v>
@@ -2725,7 +2737,7 @@
       <c r="F48" s="59"/>
       <c r="G48" s="60"/>
     </row>
-    <row r="49" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A49" s="78"/>
       <c r="B49" s="81">
         <v>29</v>
@@ -2738,7 +2750,7 @@
       <c r="F49" s="59"/>
       <c r="G49" s="60"/>
     </row>
-    <row r="50" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A50" s="78"/>
       <c r="B50" s="81">
         <v>30</v>
@@ -2751,7 +2763,7 @@
       <c r="F50" s="59"/>
       <c r="G50" s="60"/>
     </row>
-    <row r="51" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A51" s="78"/>
       <c r="B51" s="81">
         <v>31</v>
@@ -2764,7 +2776,7 @@
       <c r="F51" s="59"/>
       <c r="G51" s="60"/>
     </row>
-    <row r="52" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A52" s="78"/>
       <c r="B52" s="81">
         <v>32</v>
@@ -2777,7 +2789,7 @@
       <c r="F52" s="59"/>
       <c r="G52" s="60"/>
     </row>
-    <row r="53" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A53" s="78"/>
       <c r="B53" s="81">
         <v>33</v>
@@ -2790,7 +2802,7 @@
       <c r="F53" s="59"/>
       <c r="G53" s="60"/>
     </row>
-    <row r="54" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A54" s="78"/>
       <c r="B54" s="81">
         <v>34</v>
@@ -2803,7 +2815,7 @@
       <c r="F54" s="59"/>
       <c r="G54" s="60"/>
     </row>
-    <row r="55" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A55" s="78"/>
       <c r="B55" s="81">
         <v>35</v>
@@ -2816,16 +2828,20 @@
       <c r="F55" s="59"/>
       <c r="G55" s="60"/>
     </row>
-    <row r="56" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A56" s="78"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="70"/>
+      <c r="B56" s="81">
+        <v>36</v>
+      </c>
+      <c r="C56" s="70" t="s">
+        <v>108</v>
+      </c>
       <c r="D56" s="59"/>
       <c r="E56" s="59"/>
       <c r="F56" s="59"/>
       <c r="G56" s="60"/>
     </row>
-    <row r="57" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="78"/>
       <c r="B57" s="81"/>
       <c r="C57" s="70"/>
@@ -2906,7 +2922,7 @@
       <c r="F65" s="59"/>
       <c r="G65" s="60"/>
     </row>
-    <row r="66" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="82"/>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -2922,7 +2938,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ETML L,Normal"ETML&amp;C&amp;"-,Normal"Planification&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;"-,Normal"&amp;D - GGZ&amp;C&amp;"-,Normal"&amp;F - &amp;A&amp;R&amp;"-,Normal"Page &amp;P/&amp;N</oddFooter>
@@ -2933,12 +2949,62 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15362" r:id="rId7" name="btnCreateDiagram">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15362" r:id="rId7" name="btnCreateDiagram"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </from>
@@ -2953,57 +3019,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="15362" r:id="rId7" name="btnCreateDiagram">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>160020</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>198120</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="15362" r:id="rId7" name="btnCreateDiagram"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>99060</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3019,15 +3035,15 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="1.5546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="1.5703125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="1.5546875" style="20"/>
+    <col min="1" max="1" width="17.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="1.5703125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
@@ -3042,7 +3058,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="102" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="16">
@@ -3051,7 +3067,7 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="22">
         <v>0</v>
       </c>
@@ -3077,9 +3093,9 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.88671875" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3091,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
@@ -3122,16 +3138,16 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="20" customWidth="1"/>
     <col min="3" max="3" width="87" style="20" customWidth="1"/>
-    <col min="4" max="4" width="44.109375" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="20"/>
+    <col min="4" max="4" width="44.140625" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -3141,7 +3157,7 @@
       <c r="C1" s="17"/>
       <c r="D1" s="83"/>
     </row>
-    <row r="2" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -3209,13 +3225,13 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" s="52" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="52" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>22</v>
       </c>
@@ -3226,7 +3242,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -3331,7 +3347,7 @@
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
     </row>
-    <row r="31" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
@@ -3372,13 +3388,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>594360</xdr:colOff>
+                <xdr:colOff>590550</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>259080</xdr:colOff>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -3403,16 +3419,16 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="20" customWidth="1"/>
     <col min="3" max="3" width="87" style="20" customWidth="1"/>
-    <col min="4" max="4" width="44.109375" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="20"/>
+    <col min="4" max="4" width="44.140625" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>14</v>
       </c>
@@ -3424,7 +3440,7 @@
       </c>
       <c r="D1" s="53"/>
     </row>
-    <row r="2" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
@@ -3522,13 +3538,13 @@
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
     </row>
-    <row r="17" spans="1:8" s="52" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="52" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>22</v>
       </c>
@@ -3539,7 +3555,7 @@
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
     </row>
-    <row r="19" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
@@ -3644,7 +3660,7 @@
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
     </row>
-    <row r="36" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -3685,13 +3701,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>594360</xdr:colOff>
+                <xdr:colOff>590550</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>259080</xdr:colOff>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -3712,20 +3728,20 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="20" customWidth="1"/>
     <col min="3" max="3" width="87" style="20" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="20"/>
+    <col min="4" max="4" width="48.28515625" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>14</v>
       </c>
@@ -3740,7 +3756,7 @@
         <v>45964</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
@@ -3844,13 +3860,13 @@
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
     </row>
-    <row r="17" spans="1:8" s="52" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="52" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>22</v>
       </c>
@@ -3863,13 +3879,13 @@
       </c>
       <c r="D18" s="48"/>
     </row>
-    <row r="19" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
     </row>
-    <row r="20" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
         <v>14</v>
       </c>
@@ -3884,7 +3900,7 @@
         <v>45971</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
         <v>3</v>
       </c>
@@ -3898,7 +3914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
@@ -3910,7 +3926,7 @@
       </c>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -3922,7 +3938,7 @@
       </c>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -3949,7 +3965,7 @@
       <c r="G25" s="32"/>
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -3964,7 +3980,7 @@
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
     </row>
-    <row r="27" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -4051,7 +4067,7 @@
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
     </row>
-    <row r="36" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="11"/>
@@ -4060,7 +4076,7 @@
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
     </row>
-    <row r="37" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
         <v>22</v>
       </c>
@@ -4073,13 +4089,13 @@
       </c>
       <c r="D37" s="48"/>
     </row>
-    <row r="38" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="49"/>
       <c r="B38" s="49"/>
       <c r="C38" s="49"/>
       <c r="D38" s="49"/>
     </row>
-    <row r="39" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="42" t="s">
         <v>14</v>
       </c>
@@ -4094,7 +4110,7 @@
         <v>45978</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
         <v>3</v>
       </c>
@@ -4108,7 +4124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
@@ -4120,7 +4136,7 @@
       </c>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="162" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -4204,13 +4220,13 @@
       <c r="C54" s="51"/>
       <c r="D54" s="51"/>
     </row>
-    <row r="55" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
     </row>
-    <row r="56" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>22</v>
       </c>
@@ -4223,13 +4239,13 @@
       </c>
       <c r="D56" s="48"/>
     </row>
-    <row r="57" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="49"/>
       <c r="B57" s="49"/>
       <c r="C57" s="49"/>
       <c r="D57" s="49"/>
     </row>
-    <row r="58" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="42" t="s">
         <v>14</v>
       </c>
@@ -4244,7 +4260,7 @@
         <v>45985</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="45" t="s">
         <v>3</v>
       </c>
@@ -4258,7 +4274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>46</v>
       </c>
@@ -4270,7 +4286,7 @@
       </c>
       <c r="D60" s="88"/>
     </row>
-    <row r="61" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>49</v>
       </c>
@@ -4282,7 +4298,7 @@
       </c>
       <c r="D61" s="10"/>
     </row>
-    <row r="62" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>50</v>
       </c>
@@ -4294,7 +4310,7 @@
       </c>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>53</v>
       </c>
@@ -4366,13 +4382,13 @@
       <c r="C73" s="51"/>
       <c r="D73" s="51"/>
     </row>
-    <row r="74" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
     </row>
-    <row r="75" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="47" t="s">
         <v>22</v>
       </c>
@@ -4385,13 +4401,13 @@
       </c>
       <c r="D75" s="48"/>
     </row>
-    <row r="76" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="49"/>
       <c r="B76" s="49"/>
       <c r="C76" s="49"/>
       <c r="D76" s="49"/>
     </row>
-    <row r="77" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="42" t="s">
         <v>14</v>
       </c>
@@ -4406,7 +4422,7 @@
         <v>45992</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="45" t="s">
         <v>3</v>
       </c>
@@ -4432,7 +4448,7 @@
       </c>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,7 +4460,7 @@
       </c>
       <c r="D80" s="10"/>
     </row>
-    <row r="81" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>58</v>
       </c>
@@ -4522,13 +4538,13 @@
       <c r="C92" s="51"/>
       <c r="D92" s="51"/>
     </row>
-    <row r="93" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
     </row>
-    <row r="94" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="47" t="s">
         <v>22</v>
       </c>
@@ -4541,13 +4557,13 @@
       </c>
       <c r="D94" s="48"/>
     </row>
-    <row r="95" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="49"/>
       <c r="B95" s="49"/>
       <c r="C95" s="49"/>
       <c r="D95" s="49"/>
     </row>
-    <row r="96" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="42" t="s">
         <v>14</v>
       </c>
@@ -4562,7 +4578,7 @@
         <v>45999</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="45" t="s">
         <v>3</v>
       </c>
@@ -4664,13 +4680,13 @@
       <c r="C111" s="51"/>
       <c r="D111" s="51"/>
     </row>
-    <row r="112" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
     </row>
-    <row r="113" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="47" t="s">
         <v>22</v>
       </c>
@@ -4683,13 +4699,13 @@
       </c>
       <c r="D113" s="48"/>
     </row>
-    <row r="114" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="49"/>
       <c r="B114" s="49"/>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
     </row>
-    <row r="115" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="42" t="s">
         <v>14</v>
       </c>
@@ -4704,7 +4720,7 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="45" t="s">
         <v>3</v>
       </c>
@@ -4718,7 +4734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>61</v>
       </c>
@@ -4730,7 +4746,7 @@
       </c>
       <c r="D117" s="9"/>
     </row>
-    <row r="118" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>62</v>
       </c>
@@ -4742,7 +4758,7 @@
       </c>
       <c r="D118" s="10"/>
     </row>
-    <row r="119" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>63</v>
       </c>
@@ -4754,7 +4770,7 @@
       </c>
       <c r="D119" s="90"/>
     </row>
-    <row r="120" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>67</v>
       </c>
@@ -4766,7 +4782,7 @@
       </c>
       <c r="D120" s="10"/>
     </row>
-    <row r="121" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>69</v>
       </c>
@@ -4781,7 +4797,7 @@
     <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="93" t="s">
+      <c r="C122" s="92" t="s">
         <v>71</v>
       </c>
       <c r="D122" s="10"/>
@@ -4789,36 +4805,36 @@
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="92" t="s">
+      <c r="C123" s="91" t="s">
         <v>72</v>
       </c>
       <c r="D123" s="10"/>
     </row>
-    <row r="124" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B124" s="2">
         <v>2</v>
       </c>
-      <c r="C124" s="96" t="s">
+      <c r="C124" s="95" t="s">
         <v>75</v>
       </c>
       <c r="D124" s="10"/>
     </row>
-    <row r="125" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B125" s="2">
         <v>1</v>
       </c>
-      <c r="C125" s="94" t="s">
+      <c r="C125" s="93" t="s">
         <v>74</v>
       </c>
       <c r="D125" s="10"/>
     </row>
-    <row r="126" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>77</v>
       </c>
@@ -4830,7 +4846,7 @@
       </c>
       <c r="D126" s="10"/>
     </row>
-    <row r="127" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>78</v>
       </c>
@@ -4842,8 +4858,8 @@
       </c>
       <c r="D127" s="10"/>
     </row>
-    <row r="128" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A128" s="95" t="s">
+    <row r="128" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="94" t="s">
         <v>80</v>
       </c>
       <c r="B128" s="2">
@@ -4854,171 +4870,171 @@
       </c>
       <c r="D128" s="10"/>
     </row>
-    <row r="129" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A129" s="50" t="s">
         <v>83</v>
       </c>
       <c r="B129" s="50">
         <v>1</v>
       </c>
-      <c r="C129" s="97" t="s">
+      <c r="C129" s="96" t="s">
         <v>85</v>
       </c>
       <c r="D129" s="51"/>
     </row>
-    <row r="130" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A130" s="50" t="s">
         <v>84</v>
       </c>
       <c r="B130" s="50">
         <v>4</v>
       </c>
-      <c r="C130" s="97" t="s">
+      <c r="C130" s="96" t="s">
         <v>87</v>
       </c>
       <c r="D130" s="51"/>
     </row>
-    <row r="131" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A131" s="50" t="s">
         <v>88</v>
       </c>
       <c r="B131" s="50">
         <v>3</v>
       </c>
-      <c r="C131" s="97" t="s">
+      <c r="C131" s="96" t="s">
         <v>93</v>
       </c>
       <c r="D131" s="51"/>
     </row>
-    <row r="132" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A132" s="50" t="s">
         <v>89</v>
       </c>
       <c r="B132" s="50">
         <v>3</v>
       </c>
-      <c r="C132" s="97" t="s">
+      <c r="C132" s="96" t="s">
         <v>94</v>
       </c>
       <c r="D132" s="51"/>
     </row>
-    <row r="133" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A133" s="50" t="s">
         <v>90</v>
       </c>
       <c r="B133" s="50">
         <v>4</v>
       </c>
-      <c r="C133" s="97" t="s">
+      <c r="C133" s="96" t="s">
         <v>95</v>
       </c>
       <c r="D133" s="51"/>
     </row>
-    <row r="134" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A134" s="50" t="s">
         <v>91</v>
       </c>
       <c r="B134" s="50">
         <v>2</v>
       </c>
-      <c r="C134" s="97" t="s">
+      <c r="C134" s="96" t="s">
         <v>96</v>
       </c>
       <c r="D134" s="51"/>
     </row>
-    <row r="135" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B135" s="3">
         <v>5</v>
       </c>
-      <c r="C135" s="98" t="s">
+      <c r="C135" s="97" t="s">
         <v>97</v>
       </c>
       <c r="D135" s="11"/>
     </row>
-    <row r="136" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="103" t="s">
+      <c r="C136" s="98" t="s">
         <v>99</v>
       </c>
       <c r="D136" s="11"/>
     </row>
-    <row r="137" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B137" s="3">
         <v>6</v>
       </c>
-      <c r="C137" s="98" t="s">
+      <c r="C137" s="97" t="s">
         <v>100</v>
       </c>
       <c r="D137" s="11"/>
     </row>
-    <row r="138" spans="1:4" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B138" s="3">
         <v>8</v>
       </c>
-      <c r="C138" s="98" t="s">
+      <c r="C138" s="97" t="s">
         <v>102</v>
       </c>
       <c r="D138" s="11"/>
     </row>
-    <row r="139" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B139" s="3">
         <v>3</v>
       </c>
-      <c r="C139" s="104" t="s">
+      <c r="C139" s="99" t="s">
         <v>104</v>
       </c>
       <c r="D139" s="11"/>
     </row>
-    <row r="140" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B140" s="3">
         <v>1</v>
       </c>
-      <c r="C140" s="104" t="s">
+      <c r="C140" s="99" t="s">
         <v>106</v>
       </c>
       <c r="D140" s="11"/>
     </row>
-    <row r="141" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
-      <c r="C141" s="98"/>
+      <c r="C141" s="97"/>
       <c r="D141" s="11"/>
     </row>
-    <row r="142" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
-      <c r="C142" s="98"/>
+      <c r="C142" s="97"/>
       <c r="D142" s="11"/>
     </row>
-    <row r="143" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
-      <c r="C143" s="98"/>
+      <c r="C143" s="97"/>
       <c r="D143" s="11"/>
     </row>
-    <row r="144" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
-      <c r="C144" s="98"/>
+      <c r="C144" s="97"/>
       <c r="D144" s="11"/>
     </row>
-    <row r="145" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="47" t="s">
         <v>22</v>
       </c>
@@ -5031,13 +5047,13 @@
       </c>
       <c r="D145" s="48"/>
     </row>
-    <row r="146" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="49"/>
       <c r="B146" s="49"/>
       <c r="C146" s="49"/>
       <c r="D146" s="49"/>
     </row>
-    <row r="147" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="42" t="s">
         <v>14</v>
       </c>
@@ -5048,11 +5064,11 @@
         <v>23</v>
       </c>
       <c r="D147" s="53">
-        <f>$D$115+7</f>
-        <v>46013</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+        <f>$D$115+21</f>
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="45" t="s">
         <v>3</v>
       </c>
@@ -5066,16 +5082,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="5"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="91"/>
+    <row r="149" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B149" s="4">
+        <v>4</v>
+      </c>
+      <c r="C149" s="104" t="s">
+        <v>109</v>
+      </c>
       <c r="D149" s="9"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="87"/>
+      <c r="C150" s="87" t="s">
+        <v>110</v>
+      </c>
       <c r="D150" s="10"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5150,26 +5174,26 @@
       <c r="C162" s="51"/>
       <c r="D162" s="51"/>
     </row>
-    <row r="163" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
     </row>
-    <row r="164" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="47" t="s">
         <v>22</v>
       </c>
       <c r="B164" s="47">
         <f>SUM(B149:B163)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C164" s="85" t="s">
         <v>31</v>
       </c>
       <c r="D164" s="48"/>
     </row>
-    <row r="165" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A165" s="49"/>
       <c r="B165" s="49"/>
       <c r="C165" s="49"/>
@@ -5209,13 +5233,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>594360</xdr:colOff>
+                <xdr:colOff>590550</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>259080</xdr:colOff>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -5461,6 +5485,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
@@ -5469,15 +5502,6 @@
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5500,6 +5524,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C29126A-0525-4FCA-A870-5924A033DD5A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5508,12 +5540,4 @@
     <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>